--- a/data/trans_orig/P24C-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P24C-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{CDFCABEC-BC34-4D2B-9F3B-36D95103ABD6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{2DF11C34-70E1-41EE-A81B-77B73BFDFAA3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{4D8F4F7A-7D49-463F-8D4D-6864DDC64C1A}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{56B6DD3D-B53A-42D7-BBFC-BD5760745713}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="552" uniqueCount="333">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="552" uniqueCount="337">
   <si>
     <t>Población según si su médico le ha aconsejado que deje de fumar en 2007 (Tasa respuesta: 33,65%)</t>
   </si>
@@ -76,855 +76,870 @@
     <t>30,48%</t>
   </si>
   <si>
-    <t>25,38%</t>
-  </si>
-  <si>
-    <t>35,02%</t>
+    <t>25,82%</t>
+  </si>
+  <si>
+    <t>35,25%</t>
   </si>
   <si>
     <t>30,63%</t>
   </si>
   <si>
-    <t>24,26%</t>
-  </si>
-  <si>
-    <t>38,37%</t>
+    <t>23,68%</t>
+  </si>
+  <si>
+    <t>37,62%</t>
   </si>
   <si>
     <t>30,52%</t>
   </si>
   <si>
-    <t>26,67%</t>
+    <t>26,64%</t>
+  </si>
+  <si>
+    <t>34,36%</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>37,27%</t>
+  </si>
+  <si>
+    <t>32,09%</t>
+  </si>
+  <si>
+    <t>42,26%</t>
+  </si>
+  <si>
+    <t>47,7%</t>
+  </si>
+  <si>
+    <t>39,95%</t>
+  </si>
+  <si>
+    <t>54,86%</t>
+  </si>
+  <si>
+    <t>40,61%</t>
+  </si>
+  <si>
+    <t>36,1%</t>
+  </si>
+  <si>
+    <t>44,55%</t>
+  </si>
+  <si>
+    <t>Sí</t>
+  </si>
+  <si>
+    <t>32,26%</t>
+  </si>
+  <si>
+    <t>27,3%</t>
+  </si>
+  <si>
+    <t>37,34%</t>
+  </si>
+  <si>
+    <t>21,68%</t>
+  </si>
+  <si>
+    <t>16,15%</t>
+  </si>
+  <si>
+    <t>28,39%</t>
+  </si>
+  <si>
+    <t>28,86%</t>
+  </si>
+  <si>
+    <t>25,14%</t>
+  </si>
+  <si>
+    <t>33,12%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Secundarios</t>
+  </si>
+  <si>
+    <t>47,91%</t>
+  </si>
+  <si>
+    <t>44,41%</t>
+  </si>
+  <si>
+    <t>51,69%</t>
+  </si>
+  <si>
+    <t>43,64%</t>
+  </si>
+  <si>
+    <t>39,64%</t>
+  </si>
+  <si>
+    <t>48,0%</t>
+  </si>
+  <si>
+    <t>46,2%</t>
+  </si>
+  <si>
+    <t>43,46%</t>
+  </si>
+  <si>
+    <t>48,88%</t>
+  </si>
+  <si>
+    <t>37,67%</t>
+  </si>
+  <si>
+    <t>34,2%</t>
+  </si>
+  <si>
+    <t>41,03%</t>
+  </si>
+  <si>
+    <t>38,59%</t>
+  </si>
+  <si>
+    <t>34,59%</t>
+  </si>
+  <si>
+    <t>42,63%</t>
+  </si>
+  <si>
+    <t>38,04%</t>
+  </si>
+  <si>
+    <t>35,1%</t>
+  </si>
+  <si>
+    <t>40,66%</t>
+  </si>
+  <si>
+    <t>14,42%</t>
+  </si>
+  <si>
+    <t>11,88%</t>
+  </si>
+  <si>
+    <t>17,07%</t>
+  </si>
+  <si>
+    <t>17,76%</t>
+  </si>
+  <si>
+    <t>14,37%</t>
+  </si>
+  <si>
+    <t>21,06%</t>
+  </si>
+  <si>
+    <t>15,76%</t>
+  </si>
+  <si>
+    <t>13,98%</t>
+  </si>
+  <si>
+    <t>17,86%</t>
+  </si>
+  <si>
+    <t>Universitarios</t>
+  </si>
+  <si>
+    <t>49,07%</t>
+  </si>
+  <si>
+    <t>41,5%</t>
+  </si>
+  <si>
+    <t>56,4%</t>
+  </si>
+  <si>
+    <t>39,94%</t>
+  </si>
+  <si>
+    <t>31,43%</t>
+  </si>
+  <si>
+    <t>48,47%</t>
+  </si>
+  <si>
+    <t>45,25%</t>
+  </si>
+  <si>
+    <t>39,85%</t>
+  </si>
+  <si>
+    <t>50,96%</t>
+  </si>
+  <si>
+    <t>33,33%</t>
+  </si>
+  <si>
+    <t>26,31%</t>
+  </si>
+  <si>
+    <t>40,58%</t>
+  </si>
+  <si>
+    <t>37,2%</t>
+  </si>
+  <si>
+    <t>28,85%</t>
+  </si>
+  <si>
+    <t>45,49%</t>
+  </si>
+  <si>
+    <t>34,95%</t>
+  </si>
+  <si>
+    <t>29,89%</t>
+  </si>
+  <si>
+    <t>40,69%</t>
+  </si>
+  <si>
+    <t>17,6%</t>
+  </si>
+  <si>
+    <t>12,46%</t>
+  </si>
+  <si>
+    <t>24,63%</t>
+  </si>
+  <si>
+    <t>22,86%</t>
+  </si>
+  <si>
+    <t>15,83%</t>
+  </si>
+  <si>
+    <t>30,74%</t>
+  </si>
+  <si>
+    <t>19,8%</t>
+  </si>
+  <si>
+    <t>15,51%</t>
+  </si>
+  <si>
+    <t>24,44%</t>
+  </si>
+  <si>
+    <t>43,36%</t>
+  </si>
+  <si>
+    <t>40,79%</t>
+  </si>
+  <si>
+    <t>45,9%</t>
+  </si>
+  <si>
+    <t>40,38%</t>
+  </si>
+  <si>
+    <t>37,22%</t>
+  </si>
+  <si>
+    <t>43,98%</t>
+  </si>
+  <si>
+    <t>42,22%</t>
+  </si>
+  <si>
+    <t>40,02%</t>
+  </si>
+  <si>
+    <t>44,16%</t>
+  </si>
+  <si>
+    <t>36,95%</t>
+  </si>
+  <si>
+    <t>34,21%</t>
+  </si>
+  <si>
+    <t>39,57%</t>
+  </si>
+  <si>
+    <t>40,23%</t>
+  </si>
+  <si>
+    <t>36,97%</t>
+  </si>
+  <si>
+    <t>43,75%</t>
+  </si>
+  <si>
+    <t>38,21%</t>
+  </si>
+  <si>
+    <t>36,08%</t>
+  </si>
+  <si>
+    <t>40,14%</t>
+  </si>
+  <si>
+    <t>19,68%</t>
+  </si>
+  <si>
+    <t>17,45%</t>
+  </si>
+  <si>
+    <t>21,8%</t>
+  </si>
+  <si>
+    <t>19,39%</t>
+  </si>
+  <si>
+    <t>16,84%</t>
+  </si>
+  <si>
+    <t>22,45%</t>
+  </si>
+  <si>
+    <t>19,57%</t>
+  </si>
+  <si>
+    <t>17,91%</t>
+  </si>
+  <si>
+    <t>21,44%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según si su médico le ha aconsejado que deje de fumar en 2012 (Tasa respuesta: 33,15%)</t>
+  </si>
+  <si>
+    <t>11,1%</t>
+  </si>
+  <si>
+    <t>7,86%</t>
+  </si>
+  <si>
+    <t>14,83%</t>
+  </si>
+  <si>
+    <t>7,33%</t>
+  </si>
+  <si>
+    <t>4,45%</t>
+  </si>
+  <si>
+    <t>12,3%</t>
+  </si>
+  <si>
+    <t>9,69%</t>
+  </si>
+  <si>
+    <t>7,44%</t>
+  </si>
+  <si>
+    <t>12,58%</t>
+  </si>
+  <si>
+    <t>40,42%</t>
+  </si>
+  <si>
+    <t>35,39%</t>
+  </si>
+  <si>
+    <t>46,38%</t>
+  </si>
+  <si>
+    <t>54,05%</t>
+  </si>
+  <si>
+    <t>47,62%</t>
+  </si>
+  <si>
+    <t>61,33%</t>
+  </si>
+  <si>
+    <t>45,53%</t>
+  </si>
+  <si>
+    <t>41,47%</t>
+  </si>
+  <si>
+    <t>50,16%</t>
+  </si>
+  <si>
+    <t>48,48%</t>
+  </si>
+  <si>
+    <t>42,55%</t>
+  </si>
+  <si>
+    <t>54,1%</t>
+  </si>
+  <si>
+    <t>38,62%</t>
+  </si>
+  <si>
+    <t>31,75%</t>
+  </si>
+  <si>
+    <t>45,73%</t>
+  </si>
+  <si>
+    <t>44,79%</t>
+  </si>
+  <si>
+    <t>40,32%</t>
+  </si>
+  <si>
+    <t>49,02%</t>
+  </si>
+  <si>
+    <t>19,23%</t>
+  </si>
+  <si>
+    <t>16,53%</t>
+  </si>
+  <si>
+    <t>22,12%</t>
+  </si>
+  <si>
+    <t>14,25%</t>
+  </si>
+  <si>
+    <t>11,59%</t>
+  </si>
+  <si>
+    <t>17,48%</t>
+  </si>
+  <si>
+    <t>17,1%</t>
+  </si>
+  <si>
+    <t>15,23%</t>
+  </si>
+  <si>
+    <t>48,1%</t>
+  </si>
+  <si>
+    <t>44,53%</t>
+  </si>
+  <si>
+    <t>51,73%</t>
+  </si>
+  <si>
+    <t>48,51%</t>
+  </si>
+  <si>
+    <t>44,13%</t>
+  </si>
+  <si>
+    <t>52,4%</t>
+  </si>
+  <si>
+    <t>48,28%</t>
+  </si>
+  <si>
+    <t>45,65%</t>
+  </si>
+  <si>
+    <t>50,79%</t>
+  </si>
+  <si>
+    <t>32,67%</t>
+  </si>
+  <si>
+    <t>29,18%</t>
+  </si>
+  <si>
+    <t>36,09%</t>
+  </si>
+  <si>
+    <t>37,23%</t>
+  </si>
+  <si>
+    <t>33,59%</t>
+  </si>
+  <si>
+    <t>41,27%</t>
   </si>
   <si>
     <t>34,62%</t>
   </si>
   <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>37,27%</t>
-  </si>
-  <si>
-    <t>32,69%</t>
-  </si>
-  <si>
-    <t>42,59%</t>
-  </si>
-  <si>
-    <t>47,7%</t>
-  </si>
-  <si>
-    <t>40,05%</t>
-  </si>
-  <si>
-    <t>55,27%</t>
-  </si>
-  <si>
-    <t>40,61%</t>
-  </si>
-  <si>
-    <t>36,52%</t>
-  </si>
-  <si>
-    <t>44,58%</t>
-  </si>
-  <si>
-    <t>Sí</t>
-  </si>
-  <si>
-    <t>32,26%</t>
-  </si>
-  <si>
-    <t>27,68%</t>
-  </si>
-  <si>
-    <t>37,57%</t>
-  </si>
-  <si>
-    <t>21,68%</t>
-  </si>
-  <si>
-    <t>16,12%</t>
-  </si>
-  <si>
-    <t>28,47%</t>
-  </si>
-  <si>
-    <t>28,86%</t>
-  </si>
-  <si>
-    <t>25,3%</t>
-  </si>
-  <si>
-    <t>33,29%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Secundarios</t>
-  </si>
-  <si>
-    <t>47,91%</t>
-  </si>
-  <si>
-    <t>44,65%</t>
-  </si>
-  <si>
-    <t>51,8%</t>
-  </si>
-  <si>
-    <t>43,64%</t>
-  </si>
-  <si>
-    <t>39,14%</t>
-  </si>
-  <si>
-    <t>47,83%</t>
-  </si>
-  <si>
-    <t>46,2%</t>
-  </si>
-  <si>
-    <t>43,67%</t>
-  </si>
-  <si>
-    <t>48,92%</t>
-  </si>
-  <si>
-    <t>37,67%</t>
-  </si>
-  <si>
-    <t>34,15%</t>
-  </si>
-  <si>
-    <t>41,01%</t>
-  </si>
-  <si>
-    <t>38,59%</t>
-  </si>
-  <si>
-    <t>34,77%</t>
-  </si>
-  <si>
-    <t>43,44%</t>
-  </si>
-  <si>
-    <t>38,04%</t>
-  </si>
-  <si>
-    <t>35,55%</t>
-  </si>
-  <si>
-    <t>40,88%</t>
-  </si>
-  <si>
-    <t>14,42%</t>
-  </si>
-  <si>
-    <t>12,14%</t>
+    <t>32,03%</t>
+  </si>
+  <si>
+    <t>37,13%</t>
+  </si>
+  <si>
+    <t>21,74%</t>
+  </si>
+  <si>
+    <t>15,3%</t>
+  </si>
+  <si>
+    <t>29,44%</t>
+  </si>
+  <si>
+    <t>23,74%</t>
+  </si>
+  <si>
+    <t>16,95%</t>
+  </si>
+  <si>
+    <t>31,81%</t>
+  </si>
+  <si>
+    <t>22,67%</t>
+  </si>
+  <si>
+    <t>17,61%</t>
+  </si>
+  <si>
+    <t>28,24%</t>
+  </si>
+  <si>
+    <t>49,87%</t>
+  </si>
+  <si>
+    <t>41,72%</t>
+  </si>
+  <si>
+    <t>58,17%</t>
+  </si>
+  <si>
+    <t>42,78%</t>
+  </si>
+  <si>
+    <t>33,82%</t>
+  </si>
+  <si>
+    <t>51,24%</t>
+  </si>
+  <si>
+    <t>46,58%</t>
+  </si>
+  <si>
+    <t>40,48%</t>
+  </si>
+  <si>
+    <t>53,03%</t>
+  </si>
+  <si>
+    <t>28,4%</t>
+  </si>
+  <si>
+    <t>21,62%</t>
+  </si>
+  <si>
+    <t>36,87%</t>
+  </si>
+  <si>
+    <t>33,48%</t>
+  </si>
+  <si>
+    <t>25,23%</t>
+  </si>
+  <si>
+    <t>42,03%</t>
+  </si>
+  <si>
+    <t>30,75%</t>
+  </si>
+  <si>
+    <t>25,2%</t>
+  </si>
+  <si>
+    <t>36,82%</t>
+  </si>
+  <si>
+    <t>17,51%</t>
+  </si>
+  <si>
+    <t>15,46%</t>
+  </si>
+  <si>
+    <t>19,74%</t>
+  </si>
+  <si>
+    <t>14,19%</t>
+  </si>
+  <si>
+    <t>12,02%</t>
+  </si>
+  <si>
+    <t>16,81%</t>
+  </si>
+  <si>
+    <t>16,11%</t>
+  </si>
+  <si>
+    <t>14,53%</t>
+  </si>
+  <si>
+    <t>17,78%</t>
+  </si>
+  <si>
+    <t>46,4%</t>
+  </si>
+  <si>
+    <t>43,76%</t>
+  </si>
+  <si>
+    <t>49,28%</t>
+  </si>
+  <si>
+    <t>48,83%</t>
+  </si>
+  <si>
+    <t>45,86%</t>
+  </si>
+  <si>
+    <t>52,37%</t>
+  </si>
+  <si>
+    <t>47,42%</t>
+  </si>
+  <si>
+    <t>45,26%</t>
+  </si>
+  <si>
+    <t>49,53%</t>
+  </si>
+  <si>
+    <t>33,44%</t>
+  </si>
+  <si>
+    <t>38,96%</t>
+  </si>
+  <si>
+    <t>36,98%</t>
+  </si>
+  <si>
+    <t>40,36%</t>
+  </si>
+  <si>
+    <t>36,46%</t>
+  </si>
+  <si>
+    <t>34,23%</t>
+  </si>
+  <si>
+    <t>38,5%</t>
+  </si>
+  <si>
+    <t>Población según si su médico le ha aconsejado que deje de fumar en 2015 (Tasa respuesta: 29,73%)</t>
+  </si>
+  <si>
+    <t>9,53%</t>
+  </si>
+  <si>
+    <t>6,16%</t>
+  </si>
+  <si>
+    <t>14,08%</t>
+  </si>
+  <si>
+    <t>6,58%</t>
+  </si>
+  <si>
+    <t>3,31%</t>
+  </si>
+  <si>
+    <t>12,1%</t>
+  </si>
+  <si>
+    <t>8,43%</t>
+  </si>
+  <si>
+    <t>5,95%</t>
+  </si>
+  <si>
+    <t>11,82%</t>
+  </si>
+  <si>
+    <t>48,4%</t>
+  </si>
+  <si>
+    <t>41,31%</t>
+  </si>
+  <si>
+    <t>54,82%</t>
+  </si>
+  <si>
+    <t>44,07%</t>
+  </si>
+  <si>
+    <t>35,11%</t>
+  </si>
+  <si>
+    <t>52,91%</t>
+  </si>
+  <si>
+    <t>46,79%</t>
+  </si>
+  <si>
+    <t>41,24%</t>
+  </si>
+  <si>
+    <t>52,23%</t>
+  </si>
+  <si>
+    <t>42,07%</t>
+  </si>
+  <si>
+    <t>35,47%</t>
+  </si>
+  <si>
+    <t>48,67%</t>
+  </si>
+  <si>
+    <t>49,35%</t>
+  </si>
+  <si>
+    <t>39,99%</t>
+  </si>
+  <si>
+    <t>58,59%</t>
+  </si>
+  <si>
+    <t>44,78%</t>
+  </si>
+  <si>
+    <t>39,29%</t>
+  </si>
+  <si>
+    <t>50,04%</t>
+  </si>
+  <si>
+    <t>15,31%</t>
+  </si>
+  <si>
+    <t>12,77%</t>
+  </si>
+  <si>
+    <t>18,1%</t>
+  </si>
+  <si>
+    <t>14,56%</t>
+  </si>
+  <si>
+    <t>11,84%</t>
+  </si>
+  <si>
+    <t>17,46%</t>
+  </si>
+  <si>
+    <t>14,98%</t>
+  </si>
+  <si>
+    <t>13,09%</t>
+  </si>
+  <si>
+    <t>16,79%</t>
+  </si>
+  <si>
+    <t>48,97%</t>
+  </si>
+  <si>
+    <t>45,04%</t>
+  </si>
+  <si>
+    <t>52,49%</t>
+  </si>
+  <si>
+    <t>47,59%</t>
+  </si>
+  <si>
+    <t>43,95%</t>
+  </si>
+  <si>
+    <t>51,86%</t>
+  </si>
+  <si>
+    <t>48,35%</t>
+  </si>
+  <si>
+    <t>45,98%</t>
+  </si>
+  <si>
+    <t>51,33%</t>
+  </si>
+  <si>
+    <t>35,72%</t>
+  </si>
+  <si>
+    <t>32,19%</t>
+  </si>
+  <si>
+    <t>39,69%</t>
+  </si>
+  <si>
+    <t>37,85%</t>
+  </si>
+  <si>
+    <t>33,87%</t>
+  </si>
+  <si>
+    <t>41,45%</t>
+  </si>
+  <si>
+    <t>36,67%</t>
+  </si>
+  <si>
+    <t>34,05%</t>
+  </si>
+  <si>
+    <t>39,2%</t>
+  </si>
+  <si>
+    <t>24,82%</t>
   </si>
   <si>
     <t>17,13%</t>
   </si>
   <si>
-    <t>17,76%</t>
-  </si>
-  <si>
-    <t>14,46%</t>
-  </si>
-  <si>
-    <t>21,35%</t>
-  </si>
-  <si>
-    <t>15,76%</t>
-  </si>
-  <si>
-    <t>13,78%</t>
-  </si>
-  <si>
-    <t>17,75%</t>
-  </si>
-  <si>
-    <t>Universitarios</t>
-  </si>
-  <si>
-    <t>49,07%</t>
-  </si>
-  <si>
-    <t>41,64%</t>
-  </si>
-  <si>
-    <t>56,6%</t>
-  </si>
-  <si>
-    <t>39,94%</t>
-  </si>
-  <si>
-    <t>31,35%</t>
-  </si>
-  <si>
-    <t>48,46%</t>
-  </si>
-  <si>
-    <t>45,25%</t>
-  </si>
-  <si>
-    <t>39,55%</t>
-  </si>
-  <si>
-    <t>50,46%</t>
-  </si>
-  <si>
-    <t>33,33%</t>
-  </si>
-  <si>
-    <t>26,19%</t>
-  </si>
-  <si>
-    <t>40,54%</t>
-  </si>
-  <si>
-    <t>37,2%</t>
-  </si>
-  <si>
-    <t>29,51%</t>
-  </si>
-  <si>
-    <t>45,54%</t>
-  </si>
-  <si>
-    <t>34,95%</t>
-  </si>
-  <si>
-    <t>29,54%</t>
-  </si>
-  <si>
-    <t>39,95%</t>
-  </si>
-  <si>
-    <t>17,6%</t>
-  </si>
-  <si>
-    <t>12,35%</t>
-  </si>
-  <si>
-    <t>24,21%</t>
-  </si>
-  <si>
-    <t>22,86%</t>
-  </si>
-  <si>
-    <t>16,02%</t>
-  </si>
-  <si>
-    <t>30,72%</t>
-  </si>
-  <si>
-    <t>19,8%</t>
-  </si>
-  <si>
-    <t>15,8%</t>
-  </si>
-  <si>
-    <t>25,01%</t>
-  </si>
-  <si>
-    <t>43,36%</t>
-  </si>
-  <si>
-    <t>45,76%</t>
-  </si>
-  <si>
-    <t>40,38%</t>
-  </si>
-  <si>
-    <t>37,1%</t>
-  </si>
-  <si>
-    <t>43,74%</t>
-  </si>
-  <si>
-    <t>42,22%</t>
+    <t>33,28%</t>
+  </si>
+  <si>
+    <t>17,27%</t>
+  </si>
+  <si>
+    <t>11,56%</t>
+  </si>
+  <si>
+    <t>24,95%</t>
+  </si>
+  <si>
+    <t>21,29%</t>
+  </si>
+  <si>
+    <t>16,21%</t>
+  </si>
+  <si>
+    <t>26,65%</t>
+  </si>
+  <si>
+    <t>47,19%</t>
+  </si>
+  <si>
+    <t>38,25%</t>
+  </si>
+  <si>
+    <t>56,28%</t>
+  </si>
+  <si>
+    <t>48,78%</t>
   </si>
   <si>
     <t>40,07%</t>
   </si>
   <si>
-    <t>44,29%</t>
-  </si>
-  <si>
-    <t>36,95%</t>
-  </si>
-  <si>
-    <t>34,17%</t>
-  </si>
-  <si>
-    <t>39,52%</t>
-  </si>
-  <si>
-    <t>40,23%</t>
-  </si>
-  <si>
-    <t>36,78%</t>
-  </si>
-  <si>
-    <t>43,45%</t>
-  </si>
-  <si>
-    <t>38,21%</t>
-  </si>
-  <si>
-    <t>36,1%</t>
-  </si>
-  <si>
-    <t>40,37%</t>
-  </si>
-  <si>
-    <t>19,68%</t>
-  </si>
-  <si>
-    <t>17,71%</t>
-  </si>
-  <si>
-    <t>21,89%</t>
-  </si>
-  <si>
-    <t>19,39%</t>
-  </si>
-  <si>
-    <t>16,73%</t>
-  </si>
-  <si>
-    <t>22,1%</t>
-  </si>
-  <si>
-    <t>19,57%</t>
-  </si>
-  <si>
-    <t>17,93%</t>
-  </si>
-  <si>
-    <t>21,39%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según si su médico le ha aconsejado que deje de fumar en 2012 (Tasa respuesta: 33,15%)</t>
-  </si>
-  <si>
-    <t>11,1%</t>
-  </si>
-  <si>
-    <t>8,07%</t>
-  </si>
-  <si>
-    <t>14,69%</t>
-  </si>
-  <si>
-    <t>7,33%</t>
-  </si>
-  <si>
-    <t>4,09%</t>
-  </si>
-  <si>
-    <t>11,56%</t>
-  </si>
-  <si>
-    <t>9,69%</t>
-  </si>
-  <si>
-    <t>7,47%</t>
-  </si>
-  <si>
-    <t>12,5%</t>
-  </si>
-  <si>
-    <t>40,42%</t>
-  </si>
-  <si>
-    <t>34,61%</t>
-  </si>
-  <si>
-    <t>45,96%</t>
-  </si>
-  <si>
-    <t>54,05%</t>
-  </si>
-  <si>
-    <t>46,36%</t>
-  </si>
-  <si>
-    <t>60,74%</t>
-  </si>
-  <si>
-    <t>45,53%</t>
-  </si>
-  <si>
-    <t>41,32%</t>
-  </si>
-  <si>
-    <t>50,12%</t>
-  </si>
-  <si>
-    <t>48,48%</t>
-  </si>
-  <si>
-    <t>43,09%</t>
-  </si>
-  <si>
-    <t>54,54%</t>
-  </si>
-  <si>
-    <t>38,62%</t>
-  </si>
-  <si>
-    <t>32,2%</t>
-  </si>
-  <si>
-    <t>46,31%</t>
-  </si>
-  <si>
-    <t>44,79%</t>
-  </si>
-  <si>
-    <t>48,59%</t>
-  </si>
-  <si>
-    <t>19,23%</t>
-  </si>
-  <si>
-    <t>16,41%</t>
-  </si>
-  <si>
-    <t>22,06%</t>
-  </si>
-  <si>
-    <t>14,25%</t>
-  </si>
-  <si>
-    <t>11,68%</t>
-  </si>
-  <si>
-    <t>17,34%</t>
-  </si>
-  <si>
-    <t>17,1%</t>
-  </si>
-  <si>
-    <t>15,26%</t>
-  </si>
-  <si>
-    <t>19,2%</t>
-  </si>
-  <si>
-    <t>48,1%</t>
-  </si>
-  <si>
-    <t>44,32%</t>
-  </si>
-  <si>
-    <t>52,4%</t>
-  </si>
-  <si>
-    <t>48,51%</t>
-  </si>
-  <si>
-    <t>44,08%</t>
-  </si>
-  <si>
-    <t>52,42%</t>
-  </si>
-  <si>
-    <t>48,28%</t>
-  </si>
-  <si>
-    <t>45,75%</t>
-  </si>
-  <si>
-    <t>50,94%</t>
-  </si>
-  <si>
-    <t>32,67%</t>
-  </si>
-  <si>
-    <t>29,15%</t>
-  </si>
-  <si>
-    <t>36,08%</t>
-  </si>
-  <si>
-    <t>37,23%</t>
-  </si>
-  <si>
-    <t>33,63%</t>
-  </si>
-  <si>
-    <t>41,62%</t>
-  </si>
-  <si>
-    <t>32,23%</t>
-  </si>
-  <si>
-    <t>37,5%</t>
-  </si>
-  <si>
-    <t>21,74%</t>
-  </si>
-  <si>
-    <t>15,42%</t>
-  </si>
-  <si>
-    <t>23,74%</t>
-  </si>
-  <si>
-    <t>31,38%</t>
-  </si>
-  <si>
-    <t>22,67%</t>
-  </si>
-  <si>
-    <t>17,67%</t>
-  </si>
-  <si>
-    <t>28,59%</t>
-  </si>
-  <si>
-    <t>49,87%</t>
-  </si>
-  <si>
-    <t>41,11%</t>
-  </si>
-  <si>
-    <t>58,74%</t>
-  </si>
-  <si>
-    <t>42,78%</t>
-  </si>
-  <si>
-    <t>33,95%</t>
-  </si>
-  <si>
-    <t>51,37%</t>
-  </si>
-  <si>
-    <t>46,58%</t>
-  </si>
-  <si>
-    <t>40,13%</t>
-  </si>
-  <si>
-    <t>52,5%</t>
-  </si>
-  <si>
-    <t>28,4%</t>
-  </si>
-  <si>
-    <t>21,31%</t>
-  </si>
-  <si>
-    <t>36,4%</t>
-  </si>
-  <si>
-    <t>33,48%</t>
-  </si>
-  <si>
-    <t>26,63%</t>
-  </si>
-  <si>
-    <t>43,29%</t>
-  </si>
-  <si>
-    <t>30,75%</t>
-  </si>
-  <si>
-    <t>25,07%</t>
-  </si>
-  <si>
-    <t>37,04%</t>
-  </si>
-  <si>
-    <t>17,51%</t>
-  </si>
-  <si>
-    <t>15,56%</t>
-  </si>
-  <si>
-    <t>19,73%</t>
-  </si>
-  <si>
-    <t>14,19%</t>
-  </si>
-  <si>
-    <t>12,03%</t>
-  </si>
-  <si>
-    <t>16,63%</t>
-  </si>
-  <si>
-    <t>16,11%</t>
-  </si>
-  <si>
-    <t>14,47%</t>
-  </si>
-  <si>
-    <t>17,78%</t>
-  </si>
-  <si>
-    <t>46,4%</t>
-  </si>
-  <si>
-    <t>43,26%</t>
-  </si>
-  <si>
-    <t>49,13%</t>
-  </si>
-  <si>
-    <t>48,83%</t>
-  </si>
-  <si>
-    <t>45,72%</t>
-  </si>
-  <si>
-    <t>52,24%</t>
-  </si>
-  <si>
-    <t>47,42%</t>
-  </si>
-  <si>
-    <t>45,33%</t>
-  </si>
-  <si>
-    <t>49,72%</t>
-  </si>
-  <si>
-    <t>36,09%</t>
-  </si>
-  <si>
-    <t>33,46%</t>
-  </si>
-  <si>
-    <t>39,15%</t>
-  </si>
-  <si>
-    <t>36,98%</t>
-  </si>
-  <si>
-    <t>34,04%</t>
-  </si>
-  <si>
-    <t>40,29%</t>
-  </si>
-  <si>
-    <t>36,46%</t>
-  </si>
-  <si>
-    <t>34,37%</t>
-  </si>
-  <si>
-    <t>38,57%</t>
-  </si>
-  <si>
-    <t>Población según si su médico le ha aconsejado que deje de fumar en 2015 (Tasa respuesta: 29,73%)</t>
-  </si>
-  <si>
-    <t>9,53%</t>
-  </si>
-  <si>
-    <t>6,16%</t>
-  </si>
-  <si>
-    <t>14,08%</t>
-  </si>
-  <si>
-    <t>6,58%</t>
-  </si>
-  <si>
-    <t>3,31%</t>
-  </si>
-  <si>
-    <t>12,1%</t>
-  </si>
-  <si>
-    <t>8,43%</t>
-  </si>
-  <si>
-    <t>5,95%</t>
-  </si>
-  <si>
-    <t>11,82%</t>
-  </si>
-  <si>
-    <t>48,4%</t>
-  </si>
-  <si>
-    <t>41,31%</t>
-  </si>
-  <si>
-    <t>54,82%</t>
-  </si>
-  <si>
-    <t>44,07%</t>
-  </si>
-  <si>
-    <t>35,11%</t>
-  </si>
-  <si>
-    <t>52,91%</t>
-  </si>
-  <si>
-    <t>46,79%</t>
-  </si>
-  <si>
-    <t>41,24%</t>
-  </si>
-  <si>
-    <t>52,23%</t>
-  </si>
-  <si>
-    <t>42,07%</t>
-  </si>
-  <si>
-    <t>35,47%</t>
-  </si>
-  <si>
-    <t>48,67%</t>
-  </si>
-  <si>
-    <t>49,35%</t>
-  </si>
-  <si>
-    <t>39,99%</t>
-  </si>
-  <si>
-    <t>58,59%</t>
-  </si>
-  <si>
-    <t>44,78%</t>
-  </si>
-  <si>
-    <t>39,29%</t>
-  </si>
-  <si>
-    <t>50,04%</t>
-  </si>
-  <si>
-    <t>15,31%</t>
-  </si>
-  <si>
-    <t>12,77%</t>
-  </si>
-  <si>
-    <t>18,1%</t>
-  </si>
-  <si>
-    <t>14,56%</t>
-  </si>
-  <si>
-    <t>11,84%</t>
-  </si>
-  <si>
-    <t>17,46%</t>
-  </si>
-  <si>
-    <t>14,98%</t>
-  </si>
-  <si>
-    <t>13,09%</t>
-  </si>
-  <si>
-    <t>16,79%</t>
-  </si>
-  <si>
-    <t>48,97%</t>
-  </si>
-  <si>
-    <t>45,04%</t>
-  </si>
-  <si>
-    <t>52,49%</t>
-  </si>
-  <si>
-    <t>47,59%</t>
-  </si>
-  <si>
-    <t>43,95%</t>
-  </si>
-  <si>
-    <t>51,86%</t>
-  </si>
-  <si>
-    <t>48,35%</t>
-  </si>
-  <si>
-    <t>45,98%</t>
-  </si>
-  <si>
-    <t>51,33%</t>
-  </si>
-  <si>
-    <t>35,72%</t>
-  </si>
-  <si>
-    <t>32,19%</t>
-  </si>
-  <si>
-    <t>39,69%</t>
-  </si>
-  <si>
-    <t>37,85%</t>
-  </si>
-  <si>
-    <t>33,87%</t>
-  </si>
-  <si>
-    <t>41,45%</t>
-  </si>
-  <si>
-    <t>36,67%</t>
-  </si>
-  <si>
-    <t>34,05%</t>
-  </si>
-  <si>
-    <t>39,2%</t>
-  </si>
-  <si>
-    <t>24,82%</t>
-  </si>
-  <si>
-    <t>33,28%</t>
-  </si>
-  <si>
-    <t>17,27%</t>
-  </si>
-  <si>
-    <t>24,95%</t>
-  </si>
-  <si>
-    <t>21,29%</t>
-  </si>
-  <si>
-    <t>16,21%</t>
-  </si>
-  <si>
-    <t>26,65%</t>
-  </si>
-  <si>
-    <t>47,19%</t>
-  </si>
-  <si>
-    <t>38,25%</t>
-  </si>
-  <si>
-    <t>56,28%</t>
-  </si>
-  <si>
-    <t>48,78%</t>
-  </si>
-  <si>
     <t>57,64%</t>
   </si>
   <si>
@@ -989,9 +1004,6 @@
   </si>
   <si>
     <t>48,65%</t>
-  </si>
-  <si>
-    <t>45,65%</t>
   </si>
   <si>
     <t>51,88%</t>
@@ -1448,7 +1460,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{101211CF-A2A7-4D8A-9F41-CF619D2EDCBD}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A901BEB-C433-444A-B1EB-E90668A38D3D}">
   <dimension ref="A1:Q20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2193,10 +2205,10 @@
         <v>97</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>59</v>
+        <v>98</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="H16" s="7">
         <v>345</v>
@@ -2205,13 +2217,13 @@
         <v>348212</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="M16" s="7">
         <v>940</v>
@@ -2220,13 +2232,13 @@
         <v>948092</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2241,13 +2253,13 @@
         <v>511219</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="H17" s="7">
         <v>337</v>
@@ -2256,13 +2268,13 @@
         <v>346931</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="M17" s="7">
         <v>827</v>
@@ -2271,13 +2283,13 @@
         <v>858150</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2292,13 +2304,13 @@
         <v>272291</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="H18" s="7">
         <v>162</v>
@@ -2307,13 +2319,13 @@
         <v>167159</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="M18" s="7">
         <v>424</v>
@@ -2322,13 +2334,13 @@
         <v>439450</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -2384,7 +2396,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
   </sheetData>
@@ -2403,7 +2415,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C2304A7-C7F8-4B8C-8F75-F7D872D37CB8}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{60F0C4CD-D1DC-48E6-8556-0F4771C6E9FC}">
   <dimension ref="A1:Q20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2420,7 +2432,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2527,13 +2539,13 @@
         <v>37072</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="H4" s="7">
         <v>14</v>
@@ -2542,13 +2554,13 @@
         <v>14672</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="M4" s="7">
         <v>51</v>
@@ -2557,13 +2569,13 @@
         <v>51744</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2578,13 +2590,13 @@
         <v>135013</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="H5" s="7">
         <v>100</v>
@@ -2593,13 +2605,13 @@
         <v>108119</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="M5" s="7">
         <v>229</v>
@@ -2608,13 +2620,13 @@
         <v>243132</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2629,13 +2641,13 @@
         <v>161934</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="H6" s="7">
         <v>72</v>
@@ -2644,13 +2656,13 @@
         <v>77245</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="M6" s="7">
         <v>223</v>
@@ -2659,13 +2671,13 @@
         <v>239179</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>87</v>
+        <v>151</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -2733,13 +2745,13 @@
         <v>162722</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="H8" s="7">
         <v>85</v>
@@ -2748,13 +2760,13 @@
         <v>90502</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="M8" s="7">
         <v>240</v>
@@ -2763,13 +2775,13 @@
         <v>253225</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2784,13 +2796,13 @@
         <v>407036</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="H9" s="7">
         <v>285</v>
@@ -2799,13 +2811,13 @@
         <v>308012</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="M9" s="7">
         <v>670</v>
@@ -2814,13 +2826,13 @@
         <v>715048</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -2835,13 +2847,13 @@
         <v>276443</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="H10" s="7">
         <v>213</v>
@@ -2850,13 +2862,13 @@
         <v>236374</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="M10" s="7">
         <v>467</v>
@@ -2865,13 +2877,13 @@
         <v>512817</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>19</v>
+        <v>176</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2939,13 +2951,13 @@
         <v>35089</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>83</v>
+        <v>181</v>
       </c>
       <c r="H12" s="7">
         <v>29</v>
@@ -2954,13 +2966,13 @@
         <v>33105</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>152</v>
+        <v>183</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="M12" s="7">
         <v>61</v>
@@ -2969,13 +2981,13 @@
         <v>68194</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -2990,13 +3002,13 @@
         <v>80503</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="H13" s="7">
         <v>56</v>
@@ -3005,13 +3017,13 @@
         <v>59642</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="M13" s="7">
         <v>131</v>
@@ -3020,13 +3032,13 @@
         <v>140145</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3041,13 +3053,13 @@
         <v>45845</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="H14" s="7">
         <v>42</v>
@@ -3056,13 +3068,13 @@
         <v>46675</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="M14" s="7">
         <v>81</v>
@@ -3071,13 +3083,13 @@
         <v>92520</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3145,13 +3157,13 @@
         <v>234883</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="H16" s="7">
         <v>128</v>
@@ -3160,13 +3172,13 @@
         <v>138279</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="M16" s="7">
         <v>352</v>
@@ -3175,13 +3187,13 @@
         <v>373162</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3196,13 +3208,13 @@
         <v>622552</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="H17" s="7">
         <v>441</v>
@@ -3211,13 +3223,13 @@
         <v>475773</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="M17" s="7">
         <v>1030</v>
@@ -3226,13 +3238,13 @@
         <v>1098325</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3247,13 +3259,13 @@
         <v>484222</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>220</v>
+        <v>172</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="H18" s="7">
         <v>327</v>
@@ -3262,13 +3274,13 @@
         <v>360295</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>224</v>
+        <v>192</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="M18" s="7">
         <v>771</v>
@@ -3277,13 +3289,13 @@
         <v>844516</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -3339,7 +3351,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
   </sheetData>
@@ -3358,7 +3370,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{875AB266-CCB9-4440-93F7-38E8FFA561EB}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B721EF8F-95C3-4559-984B-154B4D17D393}">
   <dimension ref="A1:Q20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3375,7 +3387,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3482,13 +3494,13 @@
         <v>21123</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="H4" s="7">
         <v>9</v>
@@ -3497,13 +3509,13 @@
         <v>8639</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="M4" s="7">
         <v>29</v>
@@ -3512,13 +3524,13 @@
         <v>29763</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3533,13 +3545,13 @@
         <v>107328</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="H5" s="7">
         <v>56</v>
@@ -3548,13 +3560,13 @@
         <v>57837</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="M5" s="7">
         <v>160</v>
@@ -3563,13 +3575,13 @@
         <v>165165</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3584,13 +3596,13 @@
         <v>93294</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="H6" s="7">
         <v>62</v>
@@ -3599,13 +3611,13 @@
         <v>64770</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="M6" s="7">
         <v>151</v>
@@ -3614,13 +3626,13 @@
         <v>158064</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -3688,13 +3700,13 @@
         <v>121816</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="H8" s="7">
         <v>93</v>
@@ -3703,13 +3715,13 @@
         <v>93998</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="M8" s="7">
         <v>202</v>
@@ -3718,13 +3730,13 @@
         <v>215813</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3739,13 +3751,13 @@
         <v>389703</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="H9" s="7">
         <v>299</v>
@@ -3754,13 +3766,13 @@
         <v>307129</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="M9" s="7">
         <v>663</v>
@@ -3769,13 +3781,13 @@
         <v>696831</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -3790,13 +3802,13 @@
         <v>284217</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="H10" s="7">
         <v>233</v>
@@ -3805,13 +3817,13 @@
         <v>244245</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="M10" s="7">
         <v>498</v>
@@ -3820,13 +3832,13 @@
         <v>528461</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3894,13 +3906,13 @@
         <v>33792</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>62</v>
+        <v>287</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="H12" s="7">
         <v>21</v>
@@ -3909,13 +3921,13 @@
         <v>20647</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>130</v>
+        <v>290</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>287</v>
+        <v>291</v>
       </c>
       <c r="M12" s="7">
         <v>50</v>
@@ -3924,13 +3936,13 @@
         <v>54439</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>288</v>
+        <v>292</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>289</v>
+        <v>293</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>290</v>
+        <v>294</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -3945,13 +3957,13 @@
         <v>64248</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>291</v>
+        <v>295</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>292</v>
+        <v>296</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>293</v>
+        <v>297</v>
       </c>
       <c r="H13" s="7">
         <v>57</v>
@@ -3960,13 +3972,13 @@
         <v>58308</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>294</v>
+        <v>298</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>103</v>
+        <v>299</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>295</v>
+        <v>300</v>
       </c>
       <c r="M13" s="7">
         <v>116</v>
@@ -3975,13 +3987,13 @@
         <v>122556</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>296</v>
+        <v>301</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>297</v>
+        <v>302</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3996,13 +4008,13 @@
         <v>38113</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>298</v>
+        <v>303</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>299</v>
+        <v>304</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>300</v>
+        <v>305</v>
       </c>
       <c r="H14" s="7">
         <v>38</v>
@@ -4011,13 +4023,13 @@
         <v>40569</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>301</v>
+        <v>306</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>302</v>
+        <v>307</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>303</v>
+        <v>308</v>
       </c>
       <c r="M14" s="7">
         <v>71</v>
@@ -4026,13 +4038,13 @@
         <v>78682</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>304</v>
+        <v>309</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>305</v>
+        <v>310</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>306</v>
+        <v>311</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4100,13 +4112,13 @@
         <v>176731</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>307</v>
+        <v>312</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>308</v>
+        <v>313</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>309</v>
+        <v>314</v>
       </c>
       <c r="H16" s="7">
         <v>123</v>
@@ -4115,13 +4127,13 @@
         <v>123284</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>310</v>
+        <v>315</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>311</v>
+        <v>316</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>312</v>
+        <v>317</v>
       </c>
       <c r="M16" s="7">
         <v>281</v>
@@ -4130,13 +4142,13 @@
         <v>300016</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>313</v>
+        <v>318</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>314</v>
+        <v>319</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>315</v>
+        <v>320</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4151,13 +4163,13 @@
         <v>561279</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>316</v>
+        <v>321</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>317</v>
+        <v>168</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>318</v>
+        <v>322</v>
       </c>
       <c r="H17" s="7">
         <v>412</v>
@@ -4166,13 +4178,13 @@
         <v>423274</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>319</v>
+        <v>323</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>321</v>
+        <v>325</v>
       </c>
       <c r="M17" s="7">
         <v>939</v>
@@ -4181,13 +4193,13 @@
         <v>984554</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>322</v>
+        <v>326</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>323</v>
+        <v>327</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>324</v>
+        <v>328</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4202,13 +4214,13 @@
         <v>415625</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>325</v>
+        <v>329</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>326</v>
+        <v>330</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>327</v>
+        <v>331</v>
       </c>
       <c r="H18" s="7">
         <v>333</v>
@@ -4217,13 +4229,13 @@
         <v>349583</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>328</v>
+        <v>332</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>220</v>
+        <v>172</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>329</v>
+        <v>333</v>
       </c>
       <c r="M18" s="7">
         <v>720</v>
@@ -4232,13 +4244,13 @@
         <v>765208</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>330</v>
+        <v>334</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>331</v>
+        <v>335</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -4294,7 +4306,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P24C-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P24C-Estudios-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2DF11C34-70E1-41EE-A81B-77B73BFDFAA3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{FA89F676-FBEA-49D4-AD55-C051733FE510}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{56B6DD3D-B53A-42D7-BBFC-BD5760745713}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{C458BF8D-6575-4E04-9E91-514ED1FE2718}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="552" uniqueCount="337">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="552" uniqueCount="331">
   <si>
     <t>Población según si su médico le ha aconsejado que deje de fumar en 2007 (Tasa respuesta: 33,65%)</t>
   </si>
@@ -76,28 +76,28 @@
     <t>30,48%</t>
   </si>
   <si>
-    <t>25,82%</t>
-  </si>
-  <si>
-    <t>35,25%</t>
+    <t>25,74%</t>
+  </si>
+  <si>
+    <t>35,12%</t>
   </si>
   <si>
     <t>30,63%</t>
   </si>
   <si>
-    <t>23,68%</t>
-  </si>
-  <si>
-    <t>37,62%</t>
+    <t>23,52%</t>
+  </si>
+  <si>
+    <t>37,92%</t>
   </si>
   <si>
     <t>30,52%</t>
   </si>
   <si>
-    <t>26,64%</t>
-  </si>
-  <si>
-    <t>34,36%</t>
+    <t>26,62%</t>
+  </si>
+  <si>
+    <t>35,04%</t>
   </si>
   <si>
     <t>No</t>
@@ -106,28 +106,28 @@
     <t>37,27%</t>
   </si>
   <si>
-    <t>32,09%</t>
-  </si>
-  <si>
-    <t>42,26%</t>
+    <t>32,17%</t>
+  </si>
+  <si>
+    <t>42,45%</t>
   </si>
   <si>
     <t>47,7%</t>
   </si>
   <si>
-    <t>39,95%</t>
-  </si>
-  <si>
-    <t>54,86%</t>
+    <t>39,91%</t>
+  </si>
+  <si>
+    <t>55,34%</t>
   </si>
   <si>
     <t>40,61%</t>
   </si>
   <si>
-    <t>36,1%</t>
-  </si>
-  <si>
-    <t>44,55%</t>
+    <t>36,68%</t>
+  </si>
+  <si>
+    <t>45,14%</t>
   </si>
   <si>
     <t>Sí</t>
@@ -136,28 +136,28 @@
     <t>32,26%</t>
   </si>
   <si>
-    <t>27,3%</t>
-  </si>
-  <si>
-    <t>37,34%</t>
+    <t>27,45%</t>
+  </si>
+  <si>
+    <t>36,92%</t>
   </si>
   <si>
     <t>21,68%</t>
   </si>
   <si>
-    <t>16,15%</t>
-  </si>
-  <si>
-    <t>28,39%</t>
+    <t>16,3%</t>
+  </si>
+  <si>
+    <t>28,84%</t>
   </si>
   <si>
     <t>28,86%</t>
   </si>
   <si>
-    <t>25,14%</t>
-  </si>
-  <si>
-    <t>33,12%</t>
+    <t>24,96%</t>
+  </si>
+  <si>
+    <t>32,63%</t>
   </si>
   <si>
     <t>100%</t>
@@ -169,70 +169,70 @@
     <t>47,91%</t>
   </si>
   <si>
-    <t>44,41%</t>
-  </si>
-  <si>
-    <t>51,69%</t>
+    <t>44,53%</t>
+  </si>
+  <si>
+    <t>51,64%</t>
   </si>
   <si>
     <t>43,64%</t>
   </si>
   <si>
-    <t>39,64%</t>
-  </si>
-  <si>
-    <t>48,0%</t>
+    <t>39,68%</t>
+  </si>
+  <si>
+    <t>47,89%</t>
   </si>
   <si>
     <t>46,2%</t>
   </si>
   <si>
-    <t>43,46%</t>
-  </si>
-  <si>
-    <t>48,88%</t>
+    <t>43,66%</t>
+  </si>
+  <si>
+    <t>48,8%</t>
   </si>
   <si>
     <t>37,67%</t>
   </si>
   <si>
-    <t>34,2%</t>
-  </si>
-  <si>
-    <t>41,03%</t>
+    <t>34,21%</t>
+  </si>
+  <si>
+    <t>41,17%</t>
   </si>
   <si>
     <t>38,59%</t>
   </si>
   <si>
-    <t>34,59%</t>
-  </si>
-  <si>
-    <t>42,63%</t>
+    <t>34,74%</t>
+  </si>
+  <si>
+    <t>42,56%</t>
   </si>
   <si>
     <t>38,04%</t>
   </si>
   <si>
-    <t>35,1%</t>
-  </si>
-  <si>
-    <t>40,66%</t>
+    <t>35,27%</t>
+  </si>
+  <si>
+    <t>40,5%</t>
   </si>
   <si>
     <t>14,42%</t>
   </si>
   <si>
-    <t>11,88%</t>
-  </si>
-  <si>
-    <t>17,07%</t>
+    <t>11,91%</t>
+  </si>
+  <si>
+    <t>17,08%</t>
   </si>
   <si>
     <t>17,76%</t>
   </si>
   <si>
-    <t>14,37%</t>
+    <t>14,94%</t>
   </si>
   <si>
     <t>21,06%</t>
@@ -241,10 +241,10 @@
     <t>15,76%</t>
   </si>
   <si>
-    <t>13,98%</t>
-  </si>
-  <si>
-    <t>17,86%</t>
+    <t>13,8%</t>
+  </si>
+  <si>
+    <t>17,7%</t>
   </si>
   <si>
     <t>Universitarios</t>
@@ -253,163 +253,157 @@
     <t>49,07%</t>
   </si>
   <si>
-    <t>41,5%</t>
-  </si>
-  <si>
-    <t>56,4%</t>
+    <t>41,76%</t>
+  </si>
+  <si>
+    <t>55,8%</t>
   </si>
   <si>
     <t>39,94%</t>
   </si>
   <si>
-    <t>31,43%</t>
-  </si>
-  <si>
-    <t>48,47%</t>
+    <t>31,51%</t>
+  </si>
+  <si>
+    <t>48,51%</t>
   </si>
   <si>
     <t>45,25%</t>
   </si>
   <si>
-    <t>39,85%</t>
-  </si>
-  <si>
-    <t>50,96%</t>
+    <t>40,14%</t>
+  </si>
+  <si>
+    <t>50,55%</t>
   </si>
   <si>
     <t>33,33%</t>
   </si>
   <si>
-    <t>26,31%</t>
-  </si>
-  <si>
-    <t>40,58%</t>
+    <t>26,65%</t>
+  </si>
+  <si>
+    <t>40,38%</t>
   </si>
   <si>
     <t>37,2%</t>
   </si>
   <si>
-    <t>28,85%</t>
-  </si>
-  <si>
-    <t>45,49%</t>
+    <t>30,24%</t>
+  </si>
+  <si>
+    <t>46,04%</t>
   </si>
   <si>
     <t>34,95%</t>
   </si>
   <si>
-    <t>29,89%</t>
-  </si>
-  <si>
-    <t>40,69%</t>
+    <t>29,81%</t>
+  </si>
+  <si>
+    <t>40,34%</t>
   </si>
   <si>
     <t>17,6%</t>
   </si>
   <si>
-    <t>12,46%</t>
-  </si>
-  <si>
-    <t>24,63%</t>
+    <t>12,39%</t>
+  </si>
+  <si>
+    <t>23,55%</t>
   </si>
   <si>
     <t>22,86%</t>
   </si>
   <si>
-    <t>15,83%</t>
-  </si>
-  <si>
-    <t>30,74%</t>
+    <t>15,9%</t>
+  </si>
+  <si>
+    <t>30,66%</t>
   </si>
   <si>
     <t>19,8%</t>
   </si>
   <si>
-    <t>15,51%</t>
-  </si>
-  <si>
-    <t>24,44%</t>
+    <t>15,46%</t>
+  </si>
+  <si>
+    <t>24,89%</t>
   </si>
   <si>
     <t>43,36%</t>
   </si>
   <si>
-    <t>40,79%</t>
-  </si>
-  <si>
-    <t>45,9%</t>
-  </si>
-  <si>
-    <t>40,38%</t>
-  </si>
-  <si>
-    <t>37,22%</t>
-  </si>
-  <si>
-    <t>43,98%</t>
+    <t>40,84%</t>
+  </si>
+  <si>
+    <t>45,99%</t>
+  </si>
+  <si>
+    <t>36,95%</t>
+  </si>
+  <si>
+    <t>44,07%</t>
   </si>
   <si>
     <t>42,22%</t>
   </si>
   <si>
-    <t>40,02%</t>
-  </si>
-  <si>
-    <t>44,16%</t>
-  </si>
-  <si>
-    <t>36,95%</t>
-  </si>
-  <si>
-    <t>34,21%</t>
-  </si>
-  <si>
-    <t>39,57%</t>
+    <t>40,03%</t>
+  </si>
+  <si>
+    <t>44,21%</t>
+  </si>
+  <si>
+    <t>34,42%</t>
+  </si>
+  <si>
+    <t>39,6%</t>
   </si>
   <si>
     <t>40,23%</t>
   </si>
   <si>
-    <t>36,97%</t>
-  </si>
-  <si>
-    <t>43,75%</t>
+    <t>36,65%</t>
+  </si>
+  <si>
+    <t>43,68%</t>
   </si>
   <si>
     <t>38,21%</t>
   </si>
   <si>
-    <t>36,08%</t>
-  </si>
-  <si>
-    <t>40,14%</t>
+    <t>36,05%</t>
+  </si>
+  <si>
+    <t>40,27%</t>
   </si>
   <si>
     <t>19,68%</t>
   </si>
   <si>
-    <t>17,45%</t>
-  </si>
-  <si>
-    <t>21,8%</t>
+    <t>17,8%</t>
+  </si>
+  <si>
+    <t>22,08%</t>
   </si>
   <si>
     <t>19,39%</t>
   </si>
   <si>
-    <t>16,84%</t>
-  </si>
-  <si>
-    <t>22,45%</t>
+    <t>16,66%</t>
+  </si>
+  <si>
+    <t>22,07%</t>
   </si>
   <si>
     <t>19,57%</t>
   </si>
   <si>
-    <t>17,91%</t>
-  </si>
-  <si>
-    <t>21,44%</t>
+    <t>17,83%</t>
+  </si>
+  <si>
+    <t>21,23%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -421,82 +415,79 @@
     <t>11,1%</t>
   </si>
   <si>
-    <t>7,86%</t>
-  </si>
-  <si>
-    <t>14,83%</t>
+    <t>8,01%</t>
+  </si>
+  <si>
+    <t>15,12%</t>
   </si>
   <si>
     <t>7,33%</t>
   </si>
   <si>
-    <t>4,45%</t>
-  </si>
-  <si>
-    <t>12,3%</t>
+    <t>4,16%</t>
+  </si>
+  <si>
+    <t>11,37%</t>
   </si>
   <si>
     <t>9,69%</t>
   </si>
   <si>
-    <t>7,44%</t>
-  </si>
-  <si>
-    <t>12,58%</t>
+    <t>7,27%</t>
+  </si>
+  <si>
+    <t>12,44%</t>
   </si>
   <si>
     <t>40,42%</t>
   </si>
   <si>
-    <t>35,39%</t>
-  </si>
-  <si>
-    <t>46,38%</t>
+    <t>34,66%</t>
+  </si>
+  <si>
+    <t>45,6%</t>
   </si>
   <si>
     <t>54,05%</t>
   </si>
   <si>
-    <t>47,62%</t>
-  </si>
-  <si>
-    <t>61,33%</t>
+    <t>46,25%</t>
+  </si>
+  <si>
+    <t>61,61%</t>
   </si>
   <si>
     <t>45,53%</t>
   </si>
   <si>
-    <t>41,47%</t>
-  </si>
-  <si>
-    <t>50,16%</t>
+    <t>49,93%</t>
   </si>
   <si>
     <t>48,48%</t>
   </si>
   <si>
-    <t>42,55%</t>
-  </si>
-  <si>
-    <t>54,1%</t>
+    <t>43,41%</t>
+  </si>
+  <si>
+    <t>53,98%</t>
   </si>
   <si>
     <t>38,62%</t>
   </si>
   <si>
-    <t>31,75%</t>
-  </si>
-  <si>
-    <t>45,73%</t>
+    <t>31,46%</t>
+  </si>
+  <si>
+    <t>46,26%</t>
   </si>
   <si>
     <t>44,79%</t>
   </si>
   <si>
-    <t>40,32%</t>
-  </si>
-  <si>
-    <t>49,02%</t>
+    <t>40,45%</t>
+  </si>
+  <si>
+    <t>49,49%</t>
   </si>
   <si>
     <t>19,23%</t>
@@ -505,214 +496,211 @@
     <t>16,53%</t>
   </si>
   <si>
-    <t>22,12%</t>
+    <t>21,95%</t>
   </si>
   <si>
     <t>14,25%</t>
   </si>
   <si>
-    <t>11,59%</t>
-  </si>
-  <si>
-    <t>17,48%</t>
+    <t>11,72%</t>
+  </si>
+  <si>
+    <t>17,53%</t>
   </si>
   <si>
     <t>17,1%</t>
   </si>
   <si>
-    <t>15,23%</t>
+    <t>15,27%</t>
+  </si>
+  <si>
+    <t>19,09%</t>
   </si>
   <si>
     <t>48,1%</t>
   </si>
   <si>
-    <t>44,53%</t>
+    <t>44,92%</t>
   </si>
   <si>
     <t>51,73%</t>
   </si>
   <si>
-    <t>48,51%</t>
-  </si>
-  <si>
-    <t>44,13%</t>
+    <t>52,27%</t>
+  </si>
+  <si>
+    <t>48,28%</t>
+  </si>
+  <si>
+    <t>45,71%</t>
+  </si>
+  <si>
+    <t>50,79%</t>
+  </si>
+  <si>
+    <t>32,67%</t>
+  </si>
+  <si>
+    <t>28,97%</t>
+  </si>
+  <si>
+    <t>35,61%</t>
+  </si>
+  <si>
+    <t>37,23%</t>
+  </si>
+  <si>
+    <t>33,23%</t>
+  </si>
+  <si>
+    <t>41,32%</t>
+  </si>
+  <si>
+    <t>34,62%</t>
+  </si>
+  <si>
+    <t>32,18%</t>
+  </si>
+  <si>
+    <t>37,24%</t>
+  </si>
+  <si>
+    <t>21,74%</t>
+  </si>
+  <si>
+    <t>15,67%</t>
+  </si>
+  <si>
+    <t>23,74%</t>
+  </si>
+  <si>
+    <t>16,38%</t>
+  </si>
+  <si>
+    <t>31,82%</t>
+  </si>
+  <si>
+    <t>22,67%</t>
+  </si>
+  <si>
+    <t>17,84%</t>
+  </si>
+  <si>
+    <t>28,2%</t>
+  </si>
+  <si>
+    <t>49,87%</t>
+  </si>
+  <si>
+    <t>41,35%</t>
+  </si>
+  <si>
+    <t>58,46%</t>
+  </si>
+  <si>
+    <t>42,78%</t>
+  </si>
+  <si>
+    <t>34,22%</t>
+  </si>
+  <si>
+    <t>52,03%</t>
+  </si>
+  <si>
+    <t>46,58%</t>
+  </si>
+  <si>
+    <t>40,8%</t>
   </si>
   <si>
     <t>52,4%</t>
   </si>
   <si>
-    <t>48,28%</t>
-  </si>
-  <si>
-    <t>45,65%</t>
-  </si>
-  <si>
-    <t>50,79%</t>
-  </si>
-  <si>
-    <t>32,67%</t>
-  </si>
-  <si>
-    <t>29,18%</t>
+    <t>28,4%</t>
+  </si>
+  <si>
+    <t>20,71%</t>
+  </si>
+  <si>
+    <t>35,94%</t>
+  </si>
+  <si>
+    <t>33,48%</t>
+  </si>
+  <si>
+    <t>25,7%</t>
+  </si>
+  <si>
+    <t>42,49%</t>
+  </si>
+  <si>
+    <t>30,75%</t>
+  </si>
+  <si>
+    <t>25,16%</t>
+  </si>
+  <si>
+    <t>36,32%</t>
+  </si>
+  <si>
+    <t>17,51%</t>
+  </si>
+  <si>
+    <t>15,58%</t>
+  </si>
+  <si>
+    <t>19,93%</t>
+  </si>
+  <si>
+    <t>14,19%</t>
+  </si>
+  <si>
+    <t>12,1%</t>
+  </si>
+  <si>
+    <t>16,59%</t>
+  </si>
+  <si>
+    <t>16,11%</t>
+  </si>
+  <si>
+    <t>14,59%</t>
+  </si>
+  <si>
+    <t>17,69%</t>
+  </si>
+  <si>
+    <t>46,4%</t>
+  </si>
+  <si>
+    <t>43,61%</t>
+  </si>
+  <si>
+    <t>49,29%</t>
+  </si>
+  <si>
+    <t>48,83%</t>
+  </si>
+  <si>
+    <t>45,5%</t>
+  </si>
+  <si>
+    <t>52,32%</t>
+  </si>
+  <si>
+    <t>47,42%</t>
+  </si>
+  <si>
+    <t>45,39%</t>
+  </si>
+  <si>
+    <t>49,74%</t>
   </si>
   <si>
     <t>36,09%</t>
   </si>
   <si>
-    <t>37,23%</t>
-  </si>
-  <si>
-    <t>33,59%</t>
-  </si>
-  <si>
-    <t>41,27%</t>
-  </si>
-  <si>
-    <t>34,62%</t>
-  </si>
-  <si>
-    <t>32,03%</t>
-  </si>
-  <si>
-    <t>37,13%</t>
-  </si>
-  <si>
-    <t>21,74%</t>
-  </si>
-  <si>
-    <t>15,3%</t>
-  </si>
-  <si>
-    <t>29,44%</t>
-  </si>
-  <si>
-    <t>23,74%</t>
-  </si>
-  <si>
-    <t>16,95%</t>
-  </si>
-  <si>
-    <t>31,81%</t>
-  </si>
-  <si>
-    <t>22,67%</t>
-  </si>
-  <si>
-    <t>17,61%</t>
-  </si>
-  <si>
-    <t>28,24%</t>
-  </si>
-  <si>
-    <t>49,87%</t>
-  </si>
-  <si>
-    <t>41,72%</t>
-  </si>
-  <si>
-    <t>58,17%</t>
-  </si>
-  <si>
-    <t>42,78%</t>
-  </si>
-  <si>
-    <t>33,82%</t>
-  </si>
-  <si>
-    <t>51,24%</t>
-  </si>
-  <si>
-    <t>46,58%</t>
-  </si>
-  <si>
-    <t>40,48%</t>
-  </si>
-  <si>
-    <t>53,03%</t>
-  </si>
-  <si>
-    <t>28,4%</t>
-  </si>
-  <si>
-    <t>21,62%</t>
-  </si>
-  <si>
-    <t>36,87%</t>
-  </si>
-  <si>
-    <t>33,48%</t>
-  </si>
-  <si>
-    <t>25,23%</t>
-  </si>
-  <si>
-    <t>42,03%</t>
-  </si>
-  <si>
-    <t>30,75%</t>
-  </si>
-  <si>
-    <t>25,2%</t>
-  </si>
-  <si>
-    <t>36,82%</t>
-  </si>
-  <si>
-    <t>17,51%</t>
-  </si>
-  <si>
-    <t>15,46%</t>
-  </si>
-  <si>
-    <t>19,74%</t>
-  </si>
-  <si>
-    <t>14,19%</t>
-  </si>
-  <si>
-    <t>12,02%</t>
-  </si>
-  <si>
-    <t>16,81%</t>
-  </si>
-  <si>
-    <t>16,11%</t>
-  </si>
-  <si>
-    <t>14,53%</t>
-  </si>
-  <si>
-    <t>17,78%</t>
-  </si>
-  <si>
-    <t>46,4%</t>
-  </si>
-  <si>
-    <t>43,76%</t>
-  </si>
-  <si>
-    <t>49,28%</t>
-  </si>
-  <si>
-    <t>48,83%</t>
-  </si>
-  <si>
-    <t>45,86%</t>
-  </si>
-  <si>
-    <t>52,37%</t>
-  </si>
-  <si>
-    <t>47,42%</t>
-  </si>
-  <si>
-    <t>45,26%</t>
-  </si>
-  <si>
-    <t>49,53%</t>
-  </si>
-  <si>
-    <t>33,44%</t>
+    <t>33,27%</t>
   </si>
   <si>
     <t>38,96%</t>
@@ -721,316 +709,310 @@
     <t>36,98%</t>
   </si>
   <si>
-    <t>40,36%</t>
+    <t>33,73%</t>
+  </si>
+  <si>
+    <t>40,16%</t>
   </si>
   <si>
     <t>36,46%</t>
   </si>
   <si>
-    <t>34,23%</t>
-  </si>
-  <si>
-    <t>38,5%</t>
-  </si>
-  <si>
-    <t>Población según si su médico le ha aconsejado que deje de fumar en 2015 (Tasa respuesta: 29,73%)</t>
+    <t>34,44%</t>
+  </si>
+  <si>
+    <t>Población según si su médico le ha aconsejado que deje de fumar en 2016 (Tasa respuesta: 29,73%)</t>
   </si>
   <si>
     <t>9,53%</t>
   </si>
   <si>
-    <t>6,16%</t>
-  </si>
-  <si>
-    <t>14,08%</t>
+    <t>6,01%</t>
+  </si>
+  <si>
+    <t>13,92%</t>
   </si>
   <si>
     <t>6,58%</t>
   </si>
   <si>
-    <t>3,31%</t>
-  </si>
-  <si>
-    <t>12,1%</t>
+    <t>2,99%</t>
+  </si>
+  <si>
+    <t>11,61%</t>
   </si>
   <si>
     <t>8,43%</t>
   </si>
   <si>
-    <t>5,95%</t>
-  </si>
-  <si>
-    <t>11,82%</t>
+    <t>6,05%</t>
+  </si>
+  <si>
+    <t>12,06%</t>
   </si>
   <si>
     <t>48,4%</t>
   </si>
   <si>
-    <t>41,31%</t>
-  </si>
-  <si>
-    <t>54,82%</t>
-  </si>
-  <si>
-    <t>44,07%</t>
-  </si>
-  <si>
-    <t>35,11%</t>
-  </si>
-  <si>
-    <t>52,91%</t>
+    <t>41,06%</t>
+  </si>
+  <si>
+    <t>55,29%</t>
+  </si>
+  <si>
+    <t>35,37%</t>
+  </si>
+  <si>
+    <t>52,62%</t>
   </si>
   <si>
     <t>46,79%</t>
   </si>
   <si>
-    <t>41,24%</t>
-  </si>
-  <si>
-    <t>52,23%</t>
+    <t>41,97%</t>
+  </si>
+  <si>
+    <t>52,22%</t>
   </si>
   <si>
     <t>42,07%</t>
   </si>
   <si>
-    <t>35,47%</t>
-  </si>
-  <si>
-    <t>48,67%</t>
+    <t>35,69%</t>
+  </si>
+  <si>
+    <t>49,1%</t>
   </si>
   <si>
     <t>49,35%</t>
   </si>
   <si>
-    <t>39,99%</t>
-  </si>
-  <si>
-    <t>58,59%</t>
+    <t>40,85%</t>
+  </si>
+  <si>
+    <t>57,87%</t>
   </si>
   <si>
     <t>44,78%</t>
   </si>
   <si>
-    <t>39,29%</t>
-  </si>
-  <si>
-    <t>50,04%</t>
+    <t>49,85%</t>
   </si>
   <si>
     <t>15,31%</t>
   </si>
   <si>
-    <t>12,77%</t>
-  </si>
-  <si>
-    <t>18,1%</t>
+    <t>12,74%</t>
+  </si>
+  <si>
+    <t>18,18%</t>
   </si>
   <si>
     <t>14,56%</t>
   </si>
   <si>
-    <t>11,84%</t>
-  </si>
-  <si>
-    <t>17,46%</t>
+    <t>12,01%</t>
+  </si>
+  <si>
+    <t>17,36%</t>
   </si>
   <si>
     <t>14,98%</t>
   </si>
   <si>
-    <t>13,09%</t>
-  </si>
-  <si>
-    <t>16,79%</t>
+    <t>13,23%</t>
+  </si>
+  <si>
+    <t>16,93%</t>
   </si>
   <si>
     <t>48,97%</t>
   </si>
   <si>
-    <t>45,04%</t>
-  </si>
-  <si>
-    <t>52,49%</t>
+    <t>45,48%</t>
+  </si>
+  <si>
+    <t>52,98%</t>
   </si>
   <si>
     <t>47,59%</t>
   </si>
   <si>
-    <t>43,95%</t>
-  </si>
-  <si>
-    <t>51,86%</t>
+    <t>44,23%</t>
+  </si>
+  <si>
+    <t>52,13%</t>
   </si>
   <si>
     <t>48,35%</t>
   </si>
   <si>
-    <t>45,98%</t>
-  </si>
-  <si>
-    <t>51,33%</t>
+    <t>45,75%</t>
+  </si>
+  <si>
+    <t>51,17%</t>
   </si>
   <si>
     <t>35,72%</t>
   </si>
   <si>
-    <t>32,19%</t>
-  </si>
-  <si>
-    <t>39,69%</t>
+    <t>32,27%</t>
+  </si>
+  <si>
+    <t>39,31%</t>
   </si>
   <si>
     <t>37,85%</t>
   </si>
   <si>
-    <t>33,87%</t>
-  </si>
-  <si>
-    <t>41,45%</t>
+    <t>34,16%</t>
+  </si>
+  <si>
+    <t>41,77%</t>
   </si>
   <si>
     <t>36,67%</t>
   </si>
   <si>
-    <t>34,05%</t>
-  </si>
-  <si>
-    <t>39,2%</t>
+    <t>33,92%</t>
+  </si>
+  <si>
+    <t>39,35%</t>
   </si>
   <si>
     <t>24,82%</t>
   </si>
   <si>
-    <t>17,13%</t>
-  </si>
-  <si>
-    <t>33,28%</t>
+    <t>16,99%</t>
+  </si>
+  <si>
+    <t>32,34%</t>
   </si>
   <si>
     <t>17,27%</t>
   </si>
   <si>
-    <t>11,56%</t>
-  </si>
-  <si>
-    <t>24,95%</t>
+    <t>11,46%</t>
+  </si>
+  <si>
+    <t>25,19%</t>
   </si>
   <si>
     <t>21,29%</t>
   </si>
   <si>
-    <t>16,21%</t>
-  </si>
-  <si>
-    <t>26,65%</t>
+    <t>16,46%</t>
+  </si>
+  <si>
+    <t>26,73%</t>
   </si>
   <si>
     <t>47,19%</t>
   </si>
   <si>
-    <t>38,25%</t>
-  </si>
-  <si>
-    <t>56,28%</t>
+    <t>38,76%</t>
+  </si>
+  <si>
+    <t>56,22%</t>
   </si>
   <si>
     <t>48,78%</t>
   </si>
   <si>
-    <t>40,07%</t>
-  </si>
-  <si>
-    <t>57,64%</t>
+    <t>39,48%</t>
+  </si>
+  <si>
+    <t>58,13%</t>
   </si>
   <si>
     <t>47,93%</t>
   </si>
   <si>
-    <t>54,47%</t>
+    <t>54,42%</t>
   </si>
   <si>
     <t>27,99%</t>
   </si>
   <si>
-    <t>20,41%</t>
-  </si>
-  <si>
-    <t>36,19%</t>
+    <t>20,58%</t>
+  </si>
+  <si>
+    <t>37,36%</t>
   </si>
   <si>
     <t>33,94%</t>
   </si>
   <si>
-    <t>25,35%</t>
-  </si>
-  <si>
-    <t>42,81%</t>
+    <t>24,83%</t>
+  </si>
+  <si>
+    <t>42,82%</t>
   </si>
   <si>
     <t>30,77%</t>
   </si>
   <si>
-    <t>24,74%</t>
-  </si>
-  <si>
-    <t>37,43%</t>
+    <t>24,94%</t>
+  </si>
+  <si>
+    <t>37,61%</t>
   </si>
   <si>
     <t>15,32%</t>
   </si>
   <si>
-    <t>13,05%</t>
-  </si>
-  <si>
-    <t>17,54%</t>
+    <t>13,13%</t>
+  </si>
+  <si>
+    <t>17,75%</t>
   </si>
   <si>
     <t>13,76%</t>
   </si>
   <si>
-    <t>11,44%</t>
-  </si>
-  <si>
-    <t>15,96%</t>
+    <t>11,58%</t>
+  </si>
+  <si>
+    <t>16,09%</t>
   </si>
   <si>
     <t>14,64%</t>
   </si>
   <si>
-    <t>13,15%</t>
-  </si>
-  <si>
-    <t>16,28%</t>
+    <t>13,17%</t>
+  </si>
+  <si>
+    <t>16,18%</t>
   </si>
   <si>
     <t>48,65%</t>
   </si>
   <si>
-    <t>51,88%</t>
+    <t>51,45%</t>
   </si>
   <si>
     <t>47,23%</t>
   </si>
   <si>
-    <t>44,03%</t>
-  </si>
-  <si>
-    <t>50,67%</t>
+    <t>43,67%</t>
+  </si>
+  <si>
+    <t>50,74%</t>
   </si>
   <si>
     <t>48,03%</t>
   </si>
   <si>
-    <t>45,68%</t>
-  </si>
-  <si>
-    <t>50,31%</t>
+    <t>45,7%</t>
+  </si>
+  <si>
+    <t>50,25%</t>
   </si>
   <si>
     <t>36,03%</t>
   </si>
   <si>
-    <t>33,2%</t>
+    <t>33,29%</t>
   </si>
   <si>
     <t>39,18%</t>
@@ -1039,16 +1021,16 @@
     <t>39,01%</t>
   </si>
   <si>
-    <t>42,48%</t>
+    <t>35,96%</t>
+  </si>
+  <si>
+    <t>42,67%</t>
   </si>
   <si>
     <t>37,33%</t>
   </si>
   <si>
-    <t>35,14%</t>
-  </si>
-  <si>
-    <t>39,61%</t>
+    <t>39,59%</t>
   </si>
 </sst>
 </file>
@@ -1460,7 +1442,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A901BEB-C433-444A-B1EB-E90668A38D3D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B7C46A28-00A6-4DA3-91B7-C20D3E4A889C}">
   <dimension ref="A1:Q20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2217,13 +2199,13 @@
         <v>348212</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="K16" s="7" t="s">
         <v>100</v>
       </c>
-      <c r="K16" s="7" t="s">
+      <c r="L16" s="7" t="s">
         <v>101</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>102</v>
       </c>
       <c r="M16" s="7">
         <v>940</v>
@@ -2232,13 +2214,13 @@
         <v>948092</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="P16" s="7" t="s">
         <v>103</v>
       </c>
-      <c r="P16" s="7" t="s">
+      <c r="Q16" s="7" t="s">
         <v>104</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>105</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2253,13 +2235,13 @@
         <v>511219</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="G17" s="7" t="s">
         <v>106</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>108</v>
       </c>
       <c r="H17" s="7">
         <v>337</v>
@@ -2268,13 +2250,13 @@
         <v>346931</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>109</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>110</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>111</v>
       </c>
       <c r="M17" s="7">
         <v>827</v>
@@ -2283,13 +2265,13 @@
         <v>858150</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>112</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>113</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>114</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2304,13 +2286,13 @@
         <v>272291</v>
       </c>
       <c r="E18" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="G18" s="7" t="s">
         <v>115</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>116</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>117</v>
       </c>
       <c r="H18" s="7">
         <v>162</v>
@@ -2319,13 +2301,13 @@
         <v>167159</v>
       </c>
       <c r="J18" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="K18" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="L18" s="7" t="s">
         <v>118</v>
-      </c>
-      <c r="K18" s="7" t="s">
-        <v>119</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>120</v>
       </c>
       <c r="M18" s="7">
         <v>424</v>
@@ -2334,13 +2316,13 @@
         <v>439450</v>
       </c>
       <c r="O18" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="P18" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="Q18" s="7" t="s">
         <v>121</v>
-      </c>
-      <c r="P18" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>123</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -2396,7 +2378,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
   </sheetData>
@@ -2415,7 +2397,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{60F0C4CD-D1DC-48E6-8556-0F4771C6E9FC}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D8E56E89-AA58-4F17-B75D-188C2AE13445}">
   <dimension ref="A1:Q20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2432,7 +2414,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2539,13 +2521,13 @@
         <v>37072</v>
       </c>
       <c r="E4" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="G4" s="7" t="s">
         <v>126</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>127</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>128</v>
       </c>
       <c r="H4" s="7">
         <v>14</v>
@@ -2554,13 +2536,13 @@
         <v>14672</v>
       </c>
       <c r="J4" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="L4" s="7" t="s">
         <v>129</v>
-      </c>
-      <c r="K4" s="7" t="s">
-        <v>130</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>131</v>
       </c>
       <c r="M4" s="7">
         <v>51</v>
@@ -2569,13 +2551,13 @@
         <v>51744</v>
       </c>
       <c r="O4" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="P4" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="Q4" s="7" t="s">
         <v>132</v>
-      </c>
-      <c r="P4" s="7" t="s">
-        <v>133</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>134</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2590,13 +2572,13 @@
         <v>135013</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="G5" s="7" t="s">
         <v>135</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>136</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>137</v>
       </c>
       <c r="H5" s="7">
         <v>100</v>
@@ -2605,13 +2587,13 @@
         <v>108119</v>
       </c>
       <c r="J5" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="L5" s="7" t="s">
         <v>138</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>139</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>140</v>
       </c>
       <c r="M5" s="7">
         <v>229</v>
@@ -2620,13 +2602,13 @@
         <v>243132</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>142</v>
+        <v>98</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2641,13 +2623,13 @@
         <v>161934</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="H6" s="7">
         <v>72</v>
@@ -2656,13 +2638,13 @@
         <v>77245</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="M6" s="7">
         <v>223</v>
@@ -2671,13 +2653,13 @@
         <v>239179</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -2745,13 +2727,13 @@
         <v>162722</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="H8" s="7">
         <v>85</v>
@@ -2760,13 +2742,13 @@
         <v>90502</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="M8" s="7">
         <v>240</v>
@@ -2775,13 +2757,13 @@
         <v>253225</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>153</v>
+        <v>158</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2796,13 +2778,13 @@
         <v>407036</v>
       </c>
       <c r="E9" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="G9" s="7" t="s">
         <v>161</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>162</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>163</v>
       </c>
       <c r="H9" s="7">
         <v>285</v>
@@ -2811,13 +2793,13 @@
         <v>308012</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>164</v>
+        <v>75</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>165</v>
+        <v>104</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="M9" s="7">
         <v>670</v>
@@ -2826,13 +2808,13 @@
         <v>715048</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -2847,13 +2829,13 @@
         <v>276443</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="H10" s="7">
         <v>213</v>
@@ -2862,13 +2844,13 @@
         <v>236374</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="M10" s="7">
         <v>467</v>
@@ -2877,13 +2859,13 @@
         <v>512817</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2951,13 +2933,13 @@
         <v>35089</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>181</v>
+        <v>37</v>
       </c>
       <c r="H12" s="7">
         <v>29</v>
@@ -2966,13 +2948,13 @@
         <v>33105</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="M12" s="7">
         <v>61</v>
@@ -2981,13 +2963,13 @@
         <v>68194</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -3002,13 +2984,13 @@
         <v>80503</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="H13" s="7">
         <v>56</v>
@@ -3017,13 +2999,13 @@
         <v>59642</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="M13" s="7">
         <v>131</v>
@@ -3032,13 +3014,13 @@
         <v>140145</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3053,13 +3035,13 @@
         <v>45845</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="H14" s="7">
         <v>42</v>
@@ -3068,13 +3050,13 @@
         <v>46675</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="M14" s="7">
         <v>81</v>
@@ -3083,13 +3065,13 @@
         <v>92520</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3157,13 +3139,13 @@
         <v>234883</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="H16" s="7">
         <v>128</v>
@@ -3172,13 +3154,13 @@
         <v>138279</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="M16" s="7">
         <v>352</v>
@@ -3187,13 +3169,13 @@
         <v>373162</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3208,13 +3190,13 @@
         <v>622552</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="H17" s="7">
         <v>441</v>
@@ -3223,13 +3205,13 @@
         <v>475773</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="M17" s="7">
         <v>1030</v>
@@ -3238,13 +3220,13 @@
         <v>1098325</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3259,13 +3241,13 @@
         <v>484222</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>172</v>
+        <v>219</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="H18" s="7">
         <v>327</v>
@@ -3274,13 +3256,13 @@
         <v>360295</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>192</v>
+        <v>223</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="M18" s="7">
         <v>771</v>
@@ -3289,13 +3271,13 @@
         <v>844516</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>230</v>
+        <v>54</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -3351,7 +3333,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
   </sheetData>
@@ -3370,7 +3352,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B721EF8F-95C3-4559-984B-154B4D17D393}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2CEA422F-D8F0-42E4-B19D-81A21F139DB4}">
   <dimension ref="A1:Q20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3387,7 +3369,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3494,13 +3476,13 @@
         <v>21123</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="H4" s="7">
         <v>9</v>
@@ -3509,13 +3491,13 @@
         <v>8639</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="M4" s="7">
         <v>29</v>
@@ -3524,13 +3506,13 @@
         <v>29763</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3545,13 +3527,13 @@
         <v>107328</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="H5" s="7">
         <v>56</v>
@@ -3560,13 +3542,13 @@
         <v>57837</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>244</v>
+        <v>101</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="M5" s="7">
         <v>160</v>
@@ -3575,13 +3557,13 @@
         <v>165165</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3596,13 +3578,13 @@
         <v>93294</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>250</v>
+        <v>245</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>251</v>
+        <v>246</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>252</v>
+        <v>247</v>
       </c>
       <c r="H6" s="7">
         <v>62</v>
@@ -3611,13 +3593,13 @@
         <v>64770</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>253</v>
+        <v>248</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>254</v>
+        <v>249</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>255</v>
+        <v>250</v>
       </c>
       <c r="M6" s="7">
         <v>151</v>
@@ -3626,13 +3608,13 @@
         <v>158064</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>256</v>
+        <v>251</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>257</v>
+        <v>46</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>258</v>
+        <v>252</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -3700,13 +3682,13 @@
         <v>121816</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>259</v>
+        <v>253</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>261</v>
+        <v>255</v>
       </c>
       <c r="H8" s="7">
         <v>93</v>
@@ -3715,13 +3697,13 @@
         <v>93998</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>262</v>
+        <v>256</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="M8" s="7">
         <v>202</v>
@@ -3730,13 +3712,13 @@
         <v>215813</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>267</v>
+        <v>261</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3751,13 +3733,13 @@
         <v>389703</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>268</v>
+        <v>262</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="H9" s="7">
         <v>299</v>
@@ -3766,13 +3748,13 @@
         <v>307129</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>271</v>
+        <v>265</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>272</v>
+        <v>266</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>273</v>
+        <v>267</v>
       </c>
       <c r="M9" s="7">
         <v>663</v>
@@ -3781,13 +3763,13 @@
         <v>696831</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>274</v>
+        <v>268</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>275</v>
+        <v>269</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>276</v>
+        <v>270</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -3802,13 +3784,13 @@
         <v>284217</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>277</v>
+        <v>271</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
       <c r="H10" s="7">
         <v>233</v>
@@ -3817,13 +3799,13 @@
         <v>244245</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>280</v>
+        <v>274</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>281</v>
+        <v>275</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>282</v>
+        <v>276</v>
       </c>
       <c r="M10" s="7">
         <v>498</v>
@@ -3832,13 +3814,13 @@
         <v>528461</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>284</v>
+        <v>278</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>285</v>
+        <v>279</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3906,13 +3888,13 @@
         <v>33792</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>286</v>
+        <v>280</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>287</v>
+        <v>281</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>288</v>
+        <v>282</v>
       </c>
       <c r="H12" s="7">
         <v>21</v>
@@ -3921,13 +3903,13 @@
         <v>20647</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>289</v>
+        <v>283</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>290</v>
+        <v>284</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>291</v>
+        <v>285</v>
       </c>
       <c r="M12" s="7">
         <v>50</v>
@@ -3936,13 +3918,13 @@
         <v>54439</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>292</v>
+        <v>286</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>293</v>
+        <v>287</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>294</v>
+        <v>288</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -3957,13 +3939,13 @@
         <v>64248</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>295</v>
+        <v>289</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>296</v>
+        <v>290</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>297</v>
+        <v>291</v>
       </c>
       <c r="H13" s="7">
         <v>57</v>
@@ -3972,13 +3954,13 @@
         <v>58308</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>298</v>
+        <v>292</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>299</v>
+        <v>293</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>300</v>
+        <v>294</v>
       </c>
       <c r="M13" s="7">
         <v>116</v>
@@ -3987,13 +3969,13 @@
         <v>122556</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>301</v>
+        <v>295</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>242</v>
+        <v>171</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>302</v>
+        <v>296</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4008,13 +3990,13 @@
         <v>38113</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>303</v>
+        <v>297</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>304</v>
+        <v>298</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>305</v>
+        <v>299</v>
       </c>
       <c r="H14" s="7">
         <v>38</v>
@@ -4023,13 +4005,13 @@
         <v>40569</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>306</v>
+        <v>300</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>307</v>
+        <v>301</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>308</v>
+        <v>302</v>
       </c>
       <c r="M14" s="7">
         <v>71</v>
@@ -4038,13 +4020,13 @@
         <v>78682</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>309</v>
+        <v>303</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>310</v>
+        <v>304</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>311</v>
+        <v>305</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4112,13 +4094,13 @@
         <v>176731</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>312</v>
+        <v>306</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>313</v>
+        <v>307</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>314</v>
+        <v>308</v>
       </c>
       <c r="H16" s="7">
         <v>123</v>
@@ -4127,13 +4109,13 @@
         <v>123284</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>315</v>
+        <v>309</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>316</v>
+        <v>310</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>317</v>
+        <v>311</v>
       </c>
       <c r="M16" s="7">
         <v>281</v>
@@ -4142,13 +4124,13 @@
         <v>300016</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>318</v>
+        <v>312</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>319</v>
+        <v>313</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>320</v>
+        <v>314</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4163,13 +4145,13 @@
         <v>561279</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>321</v>
+        <v>315</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>168</v>
+        <v>214</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>322</v>
+        <v>316</v>
       </c>
       <c r="H17" s="7">
         <v>412</v>
@@ -4178,13 +4160,13 @@
         <v>423274</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>323</v>
+        <v>317</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>324</v>
+        <v>318</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>325</v>
+        <v>319</v>
       </c>
       <c r="M17" s="7">
         <v>939</v>
@@ -4193,13 +4175,13 @@
         <v>984554</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>326</v>
+        <v>320</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>327</v>
+        <v>321</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4214,13 +4196,13 @@
         <v>415625</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>329</v>
+        <v>323</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>330</v>
+        <v>324</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>331</v>
+        <v>325</v>
       </c>
       <c r="H18" s="7">
         <v>333</v>
@@ -4229,13 +4211,13 @@
         <v>349583</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>332</v>
+        <v>326</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>172</v>
+        <v>327</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>333</v>
+        <v>328</v>
       </c>
       <c r="M18" s="7">
         <v>720</v>
@@ -4244,13 +4226,13 @@
         <v>765208</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>334</v>
+        <v>329</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>335</v>
+        <v>85</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>336</v>
+        <v>330</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -4306,7 +4288,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P24C-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P24C-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{FA89F676-FBEA-49D4-AD55-C051733FE510}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{6A1BD8D8-1DB8-419C-8974-00E999C4D8F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{C458BF8D-6575-4E04-9E91-514ED1FE2718}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{3B75C8FF-0F5F-44E5-AB52-8B73CCAD0CB2}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="552" uniqueCount="331">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="552" uniqueCount="333">
   <si>
     <t>Población según si su médico le ha aconsejado que deje de fumar en 2007 (Tasa respuesta: 33,65%)</t>
   </si>
@@ -76,28 +76,28 @@
     <t>30,48%</t>
   </si>
   <si>
-    <t>25,74%</t>
-  </si>
-  <si>
-    <t>35,12%</t>
+    <t>25,38%</t>
+  </si>
+  <si>
+    <t>35,02%</t>
   </si>
   <si>
     <t>30,63%</t>
   </si>
   <si>
-    <t>23,52%</t>
-  </si>
-  <si>
-    <t>37,92%</t>
+    <t>24,26%</t>
+  </si>
+  <si>
+    <t>38,37%</t>
   </si>
   <si>
     <t>30,52%</t>
   </si>
   <si>
-    <t>26,62%</t>
-  </si>
-  <si>
-    <t>35,04%</t>
+    <t>26,67%</t>
+  </si>
+  <si>
+    <t>34,62%</t>
   </si>
   <si>
     <t>No</t>
@@ -106,28 +106,28 @@
     <t>37,27%</t>
   </si>
   <si>
-    <t>32,17%</t>
-  </si>
-  <si>
-    <t>42,45%</t>
+    <t>32,69%</t>
+  </si>
+  <si>
+    <t>42,59%</t>
   </si>
   <si>
     <t>47,7%</t>
   </si>
   <si>
-    <t>39,91%</t>
-  </si>
-  <si>
-    <t>55,34%</t>
+    <t>40,05%</t>
+  </si>
+  <si>
+    <t>55,27%</t>
   </si>
   <si>
     <t>40,61%</t>
   </si>
   <si>
-    <t>36,68%</t>
-  </si>
-  <si>
-    <t>45,14%</t>
+    <t>36,52%</t>
+  </si>
+  <si>
+    <t>44,58%</t>
   </si>
   <si>
     <t>Sí</t>
@@ -136,28 +136,28 @@
     <t>32,26%</t>
   </si>
   <si>
-    <t>27,45%</t>
-  </si>
-  <si>
-    <t>36,92%</t>
+    <t>27,68%</t>
+  </si>
+  <si>
+    <t>37,57%</t>
   </si>
   <si>
     <t>21,68%</t>
   </si>
   <si>
-    <t>16,3%</t>
-  </si>
-  <si>
-    <t>28,84%</t>
+    <t>16,12%</t>
+  </si>
+  <si>
+    <t>28,47%</t>
   </si>
   <si>
     <t>28,86%</t>
   </si>
   <si>
-    <t>24,96%</t>
-  </si>
-  <si>
-    <t>32,63%</t>
+    <t>25,3%</t>
+  </si>
+  <si>
+    <t>33,29%</t>
   </si>
   <si>
     <t>100%</t>
@@ -169,82 +169,82 @@
     <t>47,91%</t>
   </si>
   <si>
-    <t>44,53%</t>
-  </si>
-  <si>
-    <t>51,64%</t>
+    <t>44,65%</t>
+  </si>
+  <si>
+    <t>51,8%</t>
   </si>
   <si>
     <t>43,64%</t>
   </si>
   <si>
-    <t>39,68%</t>
-  </si>
-  <si>
-    <t>47,89%</t>
+    <t>39,14%</t>
+  </si>
+  <si>
+    <t>47,83%</t>
   </si>
   <si>
     <t>46,2%</t>
   </si>
   <si>
-    <t>43,66%</t>
-  </si>
-  <si>
-    <t>48,8%</t>
+    <t>43,67%</t>
+  </si>
+  <si>
+    <t>48,92%</t>
   </si>
   <si>
     <t>37,67%</t>
   </si>
   <si>
-    <t>34,21%</t>
-  </si>
-  <si>
-    <t>41,17%</t>
+    <t>34,15%</t>
+  </si>
+  <si>
+    <t>41,01%</t>
   </si>
   <si>
     <t>38,59%</t>
   </si>
   <si>
-    <t>34,74%</t>
-  </si>
-  <si>
-    <t>42,56%</t>
+    <t>34,77%</t>
+  </si>
+  <si>
+    <t>43,44%</t>
   </si>
   <si>
     <t>38,04%</t>
   </si>
   <si>
-    <t>35,27%</t>
-  </si>
-  <si>
-    <t>40,5%</t>
+    <t>35,55%</t>
+  </si>
+  <si>
+    <t>40,88%</t>
   </si>
   <si>
     <t>14,42%</t>
   </si>
   <si>
-    <t>11,91%</t>
-  </si>
-  <si>
-    <t>17,08%</t>
+    <t>12,14%</t>
+  </si>
+  <si>
+    <t>17,13%</t>
   </si>
   <si>
     <t>17,76%</t>
   </si>
   <si>
-    <t>14,94%</t>
-  </si>
-  <si>
-    <t>21,06%</t>
+    <t>14,46%</t>
+  </si>
+  <si>
+    <t>21,35%</t>
   </si>
   <si>
     <t>15,76%</t>
   </si>
   <si>
-    <t>13,8%</t>
-  </si>
-  <si>
-    <t>17,7%</t>
+    <t>13,78%</t>
+  </si>
+  <si>
+    <t>17,75%</t>
   </si>
   <si>
     <t>Universitarios</t>
@@ -253,766 +253,772 @@
     <t>49,07%</t>
   </si>
   <si>
-    <t>41,76%</t>
-  </si>
-  <si>
-    <t>55,8%</t>
+    <t>41,64%</t>
+  </si>
+  <si>
+    <t>56,6%</t>
   </si>
   <si>
     <t>39,94%</t>
   </si>
   <si>
-    <t>31,51%</t>
+    <t>31,35%</t>
+  </si>
+  <si>
+    <t>48,46%</t>
+  </si>
+  <si>
+    <t>45,25%</t>
+  </si>
+  <si>
+    <t>39,55%</t>
+  </si>
+  <si>
+    <t>50,46%</t>
+  </si>
+  <si>
+    <t>33,33%</t>
+  </si>
+  <si>
+    <t>26,19%</t>
+  </si>
+  <si>
+    <t>40,54%</t>
+  </si>
+  <si>
+    <t>37,2%</t>
+  </si>
+  <si>
+    <t>29,51%</t>
+  </si>
+  <si>
+    <t>45,54%</t>
+  </si>
+  <si>
+    <t>34,95%</t>
+  </si>
+  <si>
+    <t>29,54%</t>
+  </si>
+  <si>
+    <t>39,95%</t>
+  </si>
+  <si>
+    <t>17,6%</t>
+  </si>
+  <si>
+    <t>12,35%</t>
+  </si>
+  <si>
+    <t>24,21%</t>
+  </si>
+  <si>
+    <t>22,86%</t>
+  </si>
+  <si>
+    <t>16,02%</t>
+  </si>
+  <si>
+    <t>30,72%</t>
+  </si>
+  <si>
+    <t>19,8%</t>
+  </si>
+  <si>
+    <t>15,8%</t>
+  </si>
+  <si>
+    <t>25,01%</t>
+  </si>
+  <si>
+    <t>43,36%</t>
+  </si>
+  <si>
+    <t>45,76%</t>
+  </si>
+  <si>
+    <t>40,38%</t>
+  </si>
+  <si>
+    <t>37,1%</t>
+  </si>
+  <si>
+    <t>43,74%</t>
+  </si>
+  <si>
+    <t>42,22%</t>
+  </si>
+  <si>
+    <t>40,07%</t>
+  </si>
+  <si>
+    <t>44,29%</t>
+  </si>
+  <si>
+    <t>36,95%</t>
+  </si>
+  <si>
+    <t>34,17%</t>
+  </si>
+  <si>
+    <t>39,52%</t>
+  </si>
+  <si>
+    <t>40,23%</t>
+  </si>
+  <si>
+    <t>36,78%</t>
+  </si>
+  <si>
+    <t>43,45%</t>
+  </si>
+  <si>
+    <t>38,21%</t>
+  </si>
+  <si>
+    <t>36,1%</t>
+  </si>
+  <si>
+    <t>40,37%</t>
+  </si>
+  <si>
+    <t>19,68%</t>
+  </si>
+  <si>
+    <t>17,71%</t>
+  </si>
+  <si>
+    <t>21,89%</t>
+  </si>
+  <si>
+    <t>19,39%</t>
+  </si>
+  <si>
+    <t>16,73%</t>
+  </si>
+  <si>
+    <t>22,1%</t>
+  </si>
+  <si>
+    <t>19,57%</t>
+  </si>
+  <si>
+    <t>17,93%</t>
+  </si>
+  <si>
+    <t>21,39%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según si su médico le ha aconsejado que deje de fumar en 2012 (Tasa respuesta: 33,15%)</t>
+  </si>
+  <si>
+    <t>11,1%</t>
+  </si>
+  <si>
+    <t>8,07%</t>
+  </si>
+  <si>
+    <t>14,69%</t>
+  </si>
+  <si>
+    <t>7,33%</t>
+  </si>
+  <si>
+    <t>4,09%</t>
+  </si>
+  <si>
+    <t>11,56%</t>
+  </si>
+  <si>
+    <t>9,69%</t>
+  </si>
+  <si>
+    <t>7,47%</t>
+  </si>
+  <si>
+    <t>12,5%</t>
+  </si>
+  <si>
+    <t>40,42%</t>
+  </si>
+  <si>
+    <t>34,61%</t>
+  </si>
+  <si>
+    <t>45,96%</t>
+  </si>
+  <si>
+    <t>54,05%</t>
+  </si>
+  <si>
+    <t>46,36%</t>
+  </si>
+  <si>
+    <t>60,74%</t>
+  </si>
+  <si>
+    <t>45,53%</t>
+  </si>
+  <si>
+    <t>41,32%</t>
+  </si>
+  <si>
+    <t>50,12%</t>
+  </si>
+  <si>
+    <t>48,48%</t>
+  </si>
+  <si>
+    <t>43,09%</t>
+  </si>
+  <si>
+    <t>54,54%</t>
+  </si>
+  <si>
+    <t>38,62%</t>
+  </si>
+  <si>
+    <t>32,2%</t>
+  </si>
+  <si>
+    <t>46,31%</t>
+  </si>
+  <si>
+    <t>44,79%</t>
+  </si>
+  <si>
+    <t>48,59%</t>
+  </si>
+  <si>
+    <t>19,23%</t>
+  </si>
+  <si>
+    <t>16,41%</t>
+  </si>
+  <si>
+    <t>22,06%</t>
+  </si>
+  <si>
+    <t>14,25%</t>
+  </si>
+  <si>
+    <t>11,68%</t>
+  </si>
+  <si>
+    <t>17,34%</t>
+  </si>
+  <si>
+    <t>17,1%</t>
+  </si>
+  <si>
+    <t>15,26%</t>
+  </si>
+  <si>
+    <t>19,2%</t>
+  </si>
+  <si>
+    <t>48,1%</t>
+  </si>
+  <si>
+    <t>44,32%</t>
+  </si>
+  <si>
+    <t>52,4%</t>
   </si>
   <si>
     <t>48,51%</t>
   </si>
   <si>
-    <t>45,25%</t>
-  </si>
-  <si>
-    <t>40,14%</t>
-  </si>
-  <si>
-    <t>50,55%</t>
-  </si>
-  <si>
-    <t>33,33%</t>
+    <t>44,08%</t>
+  </si>
+  <si>
+    <t>52,42%</t>
+  </si>
+  <si>
+    <t>48,28%</t>
+  </si>
+  <si>
+    <t>45,75%</t>
+  </si>
+  <si>
+    <t>50,94%</t>
+  </si>
+  <si>
+    <t>32,67%</t>
+  </si>
+  <si>
+    <t>29,15%</t>
+  </si>
+  <si>
+    <t>36,08%</t>
+  </si>
+  <si>
+    <t>37,23%</t>
+  </si>
+  <si>
+    <t>33,63%</t>
+  </si>
+  <si>
+    <t>41,62%</t>
+  </si>
+  <si>
+    <t>32,23%</t>
+  </si>
+  <si>
+    <t>37,5%</t>
+  </si>
+  <si>
+    <t>21,74%</t>
+  </si>
+  <si>
+    <t>15,42%</t>
+  </si>
+  <si>
+    <t>23,74%</t>
+  </si>
+  <si>
+    <t>31,38%</t>
+  </si>
+  <si>
+    <t>22,67%</t>
+  </si>
+  <si>
+    <t>17,67%</t>
+  </si>
+  <si>
+    <t>28,59%</t>
+  </si>
+  <si>
+    <t>49,87%</t>
+  </si>
+  <si>
+    <t>41,11%</t>
+  </si>
+  <si>
+    <t>58,74%</t>
+  </si>
+  <si>
+    <t>42,78%</t>
+  </si>
+  <si>
+    <t>33,95%</t>
+  </si>
+  <si>
+    <t>51,37%</t>
+  </si>
+  <si>
+    <t>46,58%</t>
+  </si>
+  <si>
+    <t>40,13%</t>
+  </si>
+  <si>
+    <t>52,5%</t>
+  </si>
+  <si>
+    <t>28,4%</t>
+  </si>
+  <si>
+    <t>21,31%</t>
+  </si>
+  <si>
+    <t>36,4%</t>
+  </si>
+  <si>
+    <t>33,48%</t>
+  </si>
+  <si>
+    <t>26,63%</t>
+  </si>
+  <si>
+    <t>43,29%</t>
+  </si>
+  <si>
+    <t>30,75%</t>
+  </si>
+  <si>
+    <t>25,07%</t>
+  </si>
+  <si>
+    <t>37,04%</t>
+  </si>
+  <si>
+    <t>17,51%</t>
+  </si>
+  <si>
+    <t>15,56%</t>
+  </si>
+  <si>
+    <t>19,73%</t>
+  </si>
+  <si>
+    <t>14,19%</t>
+  </si>
+  <si>
+    <t>12,03%</t>
+  </si>
+  <si>
+    <t>16,63%</t>
+  </si>
+  <si>
+    <t>16,11%</t>
+  </si>
+  <si>
+    <t>14,47%</t>
+  </si>
+  <si>
+    <t>17,78%</t>
+  </si>
+  <si>
+    <t>46,4%</t>
+  </si>
+  <si>
+    <t>43,26%</t>
+  </si>
+  <si>
+    <t>49,13%</t>
+  </si>
+  <si>
+    <t>48,83%</t>
+  </si>
+  <si>
+    <t>45,72%</t>
+  </si>
+  <si>
+    <t>52,24%</t>
+  </si>
+  <si>
+    <t>47,42%</t>
+  </si>
+  <si>
+    <t>45,33%</t>
+  </si>
+  <si>
+    <t>49,72%</t>
+  </si>
+  <si>
+    <t>36,09%</t>
+  </si>
+  <si>
+    <t>33,46%</t>
+  </si>
+  <si>
+    <t>39,15%</t>
+  </si>
+  <si>
+    <t>36,98%</t>
+  </si>
+  <si>
+    <t>34,04%</t>
+  </si>
+  <si>
+    <t>40,29%</t>
+  </si>
+  <si>
+    <t>36,46%</t>
+  </si>
+  <si>
+    <t>34,37%</t>
+  </si>
+  <si>
+    <t>38,57%</t>
+  </si>
+  <si>
+    <t>Población según si su médico le ha aconsejado que deje de fumar en 2016 (Tasa respuesta: 29,73%)</t>
+  </si>
+  <si>
+    <t>9,53%</t>
+  </si>
+  <si>
+    <t>6,16%</t>
+  </si>
+  <si>
+    <t>14,08%</t>
+  </si>
+  <si>
+    <t>6,58%</t>
+  </si>
+  <si>
+    <t>3,31%</t>
+  </si>
+  <si>
+    <t>12,1%</t>
+  </si>
+  <si>
+    <t>8,43%</t>
+  </si>
+  <si>
+    <t>5,95%</t>
+  </si>
+  <si>
+    <t>11,82%</t>
+  </si>
+  <si>
+    <t>48,4%</t>
+  </si>
+  <si>
+    <t>41,31%</t>
+  </si>
+  <si>
+    <t>54,82%</t>
+  </si>
+  <si>
+    <t>44,07%</t>
+  </si>
+  <si>
+    <t>35,11%</t>
+  </si>
+  <si>
+    <t>52,91%</t>
+  </si>
+  <si>
+    <t>46,79%</t>
+  </si>
+  <si>
+    <t>41,24%</t>
+  </si>
+  <si>
+    <t>52,23%</t>
+  </si>
+  <si>
+    <t>42,07%</t>
+  </si>
+  <si>
+    <t>35,47%</t>
+  </si>
+  <si>
+    <t>48,67%</t>
+  </si>
+  <si>
+    <t>49,35%</t>
+  </si>
+  <si>
+    <t>39,99%</t>
+  </si>
+  <si>
+    <t>58,59%</t>
+  </si>
+  <si>
+    <t>44,78%</t>
+  </si>
+  <si>
+    <t>39,29%</t>
+  </si>
+  <si>
+    <t>50,04%</t>
+  </si>
+  <si>
+    <t>15,31%</t>
+  </si>
+  <si>
+    <t>12,77%</t>
+  </si>
+  <si>
+    <t>18,1%</t>
+  </si>
+  <si>
+    <t>14,56%</t>
+  </si>
+  <si>
+    <t>11,84%</t>
+  </si>
+  <si>
+    <t>17,46%</t>
+  </si>
+  <si>
+    <t>14,98%</t>
+  </si>
+  <si>
+    <t>13,09%</t>
+  </si>
+  <si>
+    <t>16,79%</t>
+  </si>
+  <si>
+    <t>48,97%</t>
+  </si>
+  <si>
+    <t>45,04%</t>
+  </si>
+  <si>
+    <t>52,49%</t>
+  </si>
+  <si>
+    <t>47,59%</t>
+  </si>
+  <si>
+    <t>43,95%</t>
+  </si>
+  <si>
+    <t>51,86%</t>
+  </si>
+  <si>
+    <t>48,35%</t>
+  </si>
+  <si>
+    <t>45,98%</t>
+  </si>
+  <si>
+    <t>51,33%</t>
+  </si>
+  <si>
+    <t>35,72%</t>
+  </si>
+  <si>
+    <t>32,19%</t>
+  </si>
+  <si>
+    <t>39,69%</t>
+  </si>
+  <si>
+    <t>37,85%</t>
+  </si>
+  <si>
+    <t>33,87%</t>
+  </si>
+  <si>
+    <t>41,45%</t>
+  </si>
+  <si>
+    <t>36,67%</t>
+  </si>
+  <si>
+    <t>34,05%</t>
+  </si>
+  <si>
+    <t>39,2%</t>
+  </si>
+  <si>
+    <t>24,82%</t>
+  </si>
+  <si>
+    <t>33,28%</t>
+  </si>
+  <si>
+    <t>17,27%</t>
+  </si>
+  <si>
+    <t>24,95%</t>
+  </si>
+  <si>
+    <t>21,29%</t>
+  </si>
+  <si>
+    <t>16,21%</t>
   </si>
   <si>
     <t>26,65%</t>
   </si>
   <si>
-    <t>40,38%</t>
-  </si>
-  <si>
-    <t>37,2%</t>
-  </si>
-  <si>
-    <t>30,24%</t>
-  </si>
-  <si>
-    <t>46,04%</t>
-  </si>
-  <si>
-    <t>34,95%</t>
-  </si>
-  <si>
-    <t>29,81%</t>
-  </si>
-  <si>
-    <t>40,34%</t>
-  </si>
-  <si>
-    <t>17,6%</t>
-  </si>
-  <si>
-    <t>12,39%</t>
-  </si>
-  <si>
-    <t>23,55%</t>
-  </si>
-  <si>
-    <t>22,86%</t>
-  </si>
-  <si>
-    <t>15,9%</t>
-  </si>
-  <si>
-    <t>30,66%</t>
-  </si>
-  <si>
-    <t>19,8%</t>
-  </si>
-  <si>
-    <t>15,46%</t>
-  </si>
-  <si>
-    <t>24,89%</t>
-  </si>
-  <si>
-    <t>43,36%</t>
-  </si>
-  <si>
-    <t>40,84%</t>
-  </si>
-  <si>
-    <t>45,99%</t>
-  </si>
-  <si>
-    <t>36,95%</t>
-  </si>
-  <si>
-    <t>44,07%</t>
-  </si>
-  <si>
-    <t>42,22%</t>
-  </si>
-  <si>
-    <t>40,03%</t>
-  </si>
-  <si>
-    <t>44,21%</t>
-  </si>
-  <si>
-    <t>34,42%</t>
-  </si>
-  <si>
-    <t>39,6%</t>
-  </si>
-  <si>
-    <t>40,23%</t>
-  </si>
-  <si>
-    <t>36,65%</t>
-  </si>
-  <si>
-    <t>43,68%</t>
-  </si>
-  <si>
-    <t>38,21%</t>
-  </si>
-  <si>
-    <t>36,05%</t>
-  </si>
-  <si>
-    <t>40,27%</t>
-  </si>
-  <si>
-    <t>19,68%</t>
-  </si>
-  <si>
-    <t>17,8%</t>
-  </si>
-  <si>
-    <t>22,08%</t>
-  </si>
-  <si>
-    <t>19,39%</t>
-  </si>
-  <si>
-    <t>16,66%</t>
-  </si>
-  <si>
-    <t>22,07%</t>
-  </si>
-  <si>
-    <t>19,57%</t>
-  </si>
-  <si>
-    <t>17,83%</t>
-  </si>
-  <si>
-    <t>21,23%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según si su médico le ha aconsejado que deje de fumar en 2012 (Tasa respuesta: 33,15%)</t>
-  </si>
-  <si>
-    <t>11,1%</t>
-  </si>
-  <si>
-    <t>8,01%</t>
-  </si>
-  <si>
-    <t>15,12%</t>
-  </si>
-  <si>
-    <t>7,33%</t>
-  </si>
-  <si>
-    <t>4,16%</t>
-  </si>
-  <si>
-    <t>11,37%</t>
-  </si>
-  <si>
-    <t>9,69%</t>
-  </si>
-  <si>
-    <t>7,27%</t>
-  </si>
-  <si>
-    <t>12,44%</t>
-  </si>
-  <si>
-    <t>40,42%</t>
-  </si>
-  <si>
-    <t>34,66%</t>
-  </si>
-  <si>
-    <t>45,6%</t>
-  </si>
-  <si>
-    <t>54,05%</t>
-  </si>
-  <si>
-    <t>46,25%</t>
-  </si>
-  <si>
-    <t>61,61%</t>
-  </si>
-  <si>
-    <t>45,53%</t>
-  </si>
-  <si>
-    <t>49,93%</t>
-  </si>
-  <si>
-    <t>48,48%</t>
-  </si>
-  <si>
-    <t>43,41%</t>
-  </si>
-  <si>
-    <t>53,98%</t>
-  </si>
-  <si>
-    <t>38,62%</t>
-  </si>
-  <si>
-    <t>31,46%</t>
-  </si>
-  <si>
-    <t>46,26%</t>
-  </si>
-  <si>
-    <t>44,79%</t>
-  </si>
-  <si>
-    <t>40,45%</t>
-  </si>
-  <si>
-    <t>49,49%</t>
-  </si>
-  <si>
-    <t>19,23%</t>
-  </si>
-  <si>
-    <t>16,53%</t>
-  </si>
-  <si>
-    <t>21,95%</t>
-  </si>
-  <si>
-    <t>14,25%</t>
-  </si>
-  <si>
-    <t>11,72%</t>
-  </si>
-  <si>
-    <t>17,53%</t>
-  </si>
-  <si>
-    <t>17,1%</t>
-  </si>
-  <si>
-    <t>15,27%</t>
-  </si>
-  <si>
-    <t>19,09%</t>
-  </si>
-  <si>
-    <t>48,1%</t>
-  </si>
-  <si>
-    <t>44,92%</t>
-  </si>
-  <si>
-    <t>51,73%</t>
-  </si>
-  <si>
-    <t>52,27%</t>
-  </si>
-  <si>
-    <t>48,28%</t>
-  </si>
-  <si>
-    <t>45,71%</t>
-  </si>
-  <si>
-    <t>50,79%</t>
-  </si>
-  <si>
-    <t>32,67%</t>
-  </si>
-  <si>
-    <t>28,97%</t>
-  </si>
-  <si>
-    <t>35,61%</t>
-  </si>
-  <si>
-    <t>37,23%</t>
-  </si>
-  <si>
-    <t>33,23%</t>
-  </si>
-  <si>
-    <t>41,32%</t>
-  </si>
-  <si>
-    <t>34,62%</t>
-  </si>
-  <si>
-    <t>32,18%</t>
-  </si>
-  <si>
-    <t>37,24%</t>
-  </si>
-  <si>
-    <t>21,74%</t>
-  </si>
-  <si>
-    <t>15,67%</t>
-  </si>
-  <si>
-    <t>23,74%</t>
-  </si>
-  <si>
-    <t>16,38%</t>
-  </si>
-  <si>
-    <t>31,82%</t>
-  </si>
-  <si>
-    <t>22,67%</t>
-  </si>
-  <si>
-    <t>17,84%</t>
-  </si>
-  <si>
-    <t>28,2%</t>
-  </si>
-  <si>
-    <t>49,87%</t>
-  </si>
-  <si>
-    <t>41,35%</t>
-  </si>
-  <si>
-    <t>58,46%</t>
-  </si>
-  <si>
-    <t>42,78%</t>
-  </si>
-  <si>
-    <t>34,22%</t>
-  </si>
-  <si>
-    <t>52,03%</t>
-  </si>
-  <si>
-    <t>46,58%</t>
-  </si>
-  <si>
-    <t>40,8%</t>
-  </si>
-  <si>
-    <t>52,4%</t>
-  </si>
-  <si>
-    <t>28,4%</t>
-  </si>
-  <si>
-    <t>20,71%</t>
-  </si>
-  <si>
-    <t>35,94%</t>
-  </si>
-  <si>
-    <t>33,48%</t>
-  </si>
-  <si>
-    <t>25,7%</t>
-  </si>
-  <si>
-    <t>42,49%</t>
-  </si>
-  <si>
-    <t>30,75%</t>
-  </si>
-  <si>
-    <t>25,16%</t>
-  </si>
-  <si>
-    <t>36,32%</t>
-  </si>
-  <si>
-    <t>17,51%</t>
-  </si>
-  <si>
-    <t>15,58%</t>
-  </si>
-  <si>
-    <t>19,93%</t>
-  </si>
-  <si>
-    <t>14,19%</t>
-  </si>
-  <si>
-    <t>12,1%</t>
-  </si>
-  <si>
-    <t>16,59%</t>
-  </si>
-  <si>
-    <t>16,11%</t>
-  </si>
-  <si>
-    <t>14,59%</t>
-  </si>
-  <si>
-    <t>17,69%</t>
-  </si>
-  <si>
-    <t>46,4%</t>
-  </si>
-  <si>
-    <t>43,61%</t>
-  </si>
-  <si>
-    <t>49,29%</t>
-  </si>
-  <si>
-    <t>48,83%</t>
-  </si>
-  <si>
-    <t>45,5%</t>
-  </si>
-  <si>
-    <t>52,32%</t>
-  </si>
-  <si>
-    <t>47,42%</t>
-  </si>
-  <si>
-    <t>45,39%</t>
-  </si>
-  <si>
-    <t>49,74%</t>
-  </si>
-  <si>
-    <t>36,09%</t>
-  </si>
-  <si>
-    <t>33,27%</t>
-  </si>
-  <si>
-    <t>38,96%</t>
-  </si>
-  <si>
-    <t>36,98%</t>
-  </si>
-  <si>
-    <t>33,73%</t>
-  </si>
-  <si>
-    <t>40,16%</t>
-  </si>
-  <si>
-    <t>36,46%</t>
-  </si>
-  <si>
-    <t>34,44%</t>
-  </si>
-  <si>
-    <t>Población según si su médico le ha aconsejado que deje de fumar en 2016 (Tasa respuesta: 29,73%)</t>
-  </si>
-  <si>
-    <t>9,53%</t>
-  </si>
-  <si>
-    <t>6,01%</t>
-  </si>
-  <si>
-    <t>13,92%</t>
-  </si>
-  <si>
-    <t>6,58%</t>
-  </si>
-  <si>
-    <t>2,99%</t>
-  </si>
-  <si>
-    <t>11,61%</t>
-  </si>
-  <si>
-    <t>8,43%</t>
-  </si>
-  <si>
-    <t>6,05%</t>
-  </si>
-  <si>
-    <t>12,06%</t>
-  </si>
-  <si>
-    <t>48,4%</t>
-  </si>
-  <si>
-    <t>41,06%</t>
-  </si>
-  <si>
-    <t>55,29%</t>
-  </si>
-  <si>
-    <t>35,37%</t>
-  </si>
-  <si>
-    <t>52,62%</t>
-  </si>
-  <si>
-    <t>46,79%</t>
-  </si>
-  <si>
-    <t>41,97%</t>
-  </si>
-  <si>
-    <t>52,22%</t>
-  </si>
-  <si>
-    <t>42,07%</t>
-  </si>
-  <si>
-    <t>35,69%</t>
-  </si>
-  <si>
-    <t>49,1%</t>
-  </si>
-  <si>
-    <t>49,35%</t>
-  </si>
-  <si>
-    <t>40,85%</t>
-  </si>
-  <si>
-    <t>57,87%</t>
-  </si>
-  <si>
-    <t>44,78%</t>
-  </si>
-  <si>
-    <t>49,85%</t>
-  </si>
-  <si>
-    <t>15,31%</t>
-  </si>
-  <si>
-    <t>12,74%</t>
-  </si>
-  <si>
-    <t>18,18%</t>
-  </si>
-  <si>
-    <t>14,56%</t>
-  </si>
-  <si>
-    <t>12,01%</t>
-  </si>
-  <si>
-    <t>17,36%</t>
-  </si>
-  <si>
-    <t>14,98%</t>
-  </si>
-  <si>
-    <t>13,23%</t>
-  </si>
-  <si>
-    <t>16,93%</t>
-  </si>
-  <si>
-    <t>48,97%</t>
-  </si>
-  <si>
-    <t>45,48%</t>
-  </si>
-  <si>
-    <t>52,98%</t>
-  </si>
-  <si>
-    <t>47,59%</t>
-  </si>
-  <si>
-    <t>44,23%</t>
-  </si>
-  <si>
-    <t>52,13%</t>
-  </si>
-  <si>
-    <t>48,35%</t>
-  </si>
-  <si>
-    <t>45,75%</t>
-  </si>
-  <si>
-    <t>51,17%</t>
-  </si>
-  <si>
-    <t>35,72%</t>
-  </si>
-  <si>
-    <t>32,27%</t>
-  </si>
-  <si>
-    <t>39,31%</t>
-  </si>
-  <si>
-    <t>37,85%</t>
-  </si>
-  <si>
-    <t>34,16%</t>
-  </si>
-  <si>
-    <t>41,77%</t>
-  </si>
-  <si>
-    <t>36,67%</t>
-  </si>
-  <si>
-    <t>33,92%</t>
-  </si>
-  <si>
-    <t>39,35%</t>
-  </si>
-  <si>
-    <t>24,82%</t>
-  </si>
-  <si>
-    <t>16,99%</t>
-  </si>
-  <si>
-    <t>32,34%</t>
-  </si>
-  <si>
-    <t>17,27%</t>
-  </si>
-  <si>
-    <t>11,46%</t>
-  </si>
-  <si>
-    <t>25,19%</t>
-  </si>
-  <si>
-    <t>21,29%</t>
-  </si>
-  <si>
-    <t>16,46%</t>
-  </si>
-  <si>
-    <t>26,73%</t>
-  </si>
-  <si>
     <t>47,19%</t>
   </si>
   <si>
-    <t>38,76%</t>
-  </si>
-  <si>
-    <t>56,22%</t>
+    <t>38,25%</t>
+  </si>
+  <si>
+    <t>56,28%</t>
   </si>
   <si>
     <t>48,78%</t>
   </si>
   <si>
-    <t>39,48%</t>
-  </si>
-  <si>
-    <t>58,13%</t>
+    <t>57,64%</t>
   </si>
   <si>
     <t>47,93%</t>
   </si>
   <si>
-    <t>54,42%</t>
+    <t>54,47%</t>
   </si>
   <si>
     <t>27,99%</t>
   </si>
   <si>
-    <t>20,58%</t>
-  </si>
-  <si>
-    <t>37,36%</t>
+    <t>20,41%</t>
+  </si>
+  <si>
+    <t>36,19%</t>
   </si>
   <si>
     <t>33,94%</t>
   </si>
   <si>
-    <t>24,83%</t>
-  </si>
-  <si>
-    <t>42,82%</t>
+    <t>25,35%</t>
+  </si>
+  <si>
+    <t>42,81%</t>
   </si>
   <si>
     <t>30,77%</t>
   </si>
   <si>
-    <t>24,94%</t>
-  </si>
-  <si>
-    <t>37,61%</t>
+    <t>24,74%</t>
+  </si>
+  <si>
+    <t>37,43%</t>
   </si>
   <si>
     <t>15,32%</t>
   </si>
   <si>
-    <t>13,13%</t>
-  </si>
-  <si>
-    <t>17,75%</t>
+    <t>13,05%</t>
+  </si>
+  <si>
+    <t>17,54%</t>
   </si>
   <si>
     <t>13,76%</t>
   </si>
   <si>
-    <t>11,58%</t>
-  </si>
-  <si>
-    <t>16,09%</t>
+    <t>11,44%</t>
+  </si>
+  <si>
+    <t>15,96%</t>
   </si>
   <si>
     <t>14,64%</t>
   </si>
   <si>
-    <t>13,17%</t>
-  </si>
-  <si>
-    <t>16,18%</t>
+    <t>13,15%</t>
+  </si>
+  <si>
+    <t>16,28%</t>
   </si>
   <si>
     <t>48,65%</t>
   </si>
   <si>
-    <t>51,45%</t>
+    <t>45,65%</t>
+  </si>
+  <si>
+    <t>51,88%</t>
   </si>
   <si>
     <t>47,23%</t>
   </si>
   <si>
-    <t>43,67%</t>
-  </si>
-  <si>
-    <t>50,74%</t>
+    <t>44,03%</t>
+  </si>
+  <si>
+    <t>50,67%</t>
   </si>
   <si>
     <t>48,03%</t>
   </si>
   <si>
-    <t>45,7%</t>
-  </si>
-  <si>
-    <t>50,25%</t>
+    <t>45,68%</t>
+  </si>
+  <si>
+    <t>50,31%</t>
   </si>
   <si>
     <t>36,03%</t>
   </si>
   <si>
-    <t>33,29%</t>
+    <t>33,2%</t>
   </si>
   <si>
     <t>39,18%</t>
@@ -1021,16 +1027,16 @@
     <t>39,01%</t>
   </si>
   <si>
-    <t>35,96%</t>
-  </si>
-  <si>
-    <t>42,67%</t>
+    <t>42,48%</t>
   </si>
   <si>
     <t>37,33%</t>
   </si>
   <si>
-    <t>39,59%</t>
+    <t>35,14%</t>
+  </si>
+  <si>
+    <t>39,61%</t>
   </si>
 </sst>
 </file>
@@ -1442,7 +1448,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B7C46A28-00A6-4DA3-91B7-C20D3E4A889C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6E39341B-8CE0-4232-96D1-79B9D3CFF235}">
   <dimension ref="A1:Q20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2187,10 +2193,10 @@
         <v>97</v>
       </c>
       <c r="F16" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>98</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>99</v>
       </c>
       <c r="H16" s="7">
         <v>345</v>
@@ -2199,7 +2205,7 @@
         <v>348212</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>81</v>
+        <v>99</v>
       </c>
       <c r="K16" s="7" t="s">
         <v>100</v>
@@ -2235,13 +2241,13 @@
         <v>511219</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="H17" s="7">
         <v>337</v>
@@ -2250,13 +2256,13 @@
         <v>346931</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="M17" s="7">
         <v>827</v>
@@ -2265,13 +2271,13 @@
         <v>858150</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2286,13 +2292,13 @@
         <v>272291</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="H18" s="7">
         <v>162</v>
@@ -2301,13 +2307,13 @@
         <v>167159</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="M18" s="7">
         <v>424</v>
@@ -2316,13 +2322,13 @@
         <v>439450</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -2378,7 +2384,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
     </row>
   </sheetData>
@@ -2397,7 +2403,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D8E56E89-AA58-4F17-B75D-188C2AE13445}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{50C8F002-F8A6-4D58-A714-56D1A03075B9}">
   <dimension ref="A1:Q20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2414,7 +2420,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2521,13 +2527,13 @@
         <v>37072</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="H4" s="7">
         <v>14</v>
@@ -2536,13 +2542,13 @@
         <v>14672</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="M4" s="7">
         <v>51</v>
@@ -2551,13 +2557,13 @@
         <v>51744</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2572,13 +2578,13 @@
         <v>135013</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="H5" s="7">
         <v>100</v>
@@ -2587,13 +2593,13 @@
         <v>108119</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="M5" s="7">
         <v>229</v>
@@ -2602,13 +2608,13 @@
         <v>243132</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>98</v>
+        <v>141</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2623,13 +2629,13 @@
         <v>161934</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="H6" s="7">
         <v>72</v>
@@ -2638,13 +2644,13 @@
         <v>77245</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="M6" s="7">
         <v>223</v>
@@ -2653,13 +2659,13 @@
         <v>239179</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>148</v>
+        <v>87</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -2727,13 +2733,13 @@
         <v>162722</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="H8" s="7">
         <v>85</v>
@@ -2742,13 +2748,13 @@
         <v>90502</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="M8" s="7">
         <v>240</v>
@@ -2757,13 +2763,13 @@
         <v>253225</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2778,13 +2784,13 @@
         <v>407036</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="H9" s="7">
         <v>285</v>
@@ -2793,13 +2799,13 @@
         <v>308012</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>75</v>
+        <v>163</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>104</v>
+        <v>164</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="M9" s="7">
         <v>670</v>
@@ -2808,13 +2814,13 @@
         <v>715048</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -2829,13 +2835,13 @@
         <v>276443</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="H10" s="7">
         <v>213</v>
@@ -2844,13 +2850,13 @@
         <v>236374</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="M10" s="7">
         <v>467</v>
@@ -2859,13 +2865,13 @@
         <v>512817</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>172</v>
+        <v>19</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2933,13 +2939,13 @@
         <v>35089</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>37</v>
+        <v>83</v>
       </c>
       <c r="H12" s="7">
         <v>29</v>
@@ -2948,13 +2954,13 @@
         <v>33105</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>178</v>
+        <v>152</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="M12" s="7">
         <v>61</v>
@@ -2963,13 +2969,13 @@
         <v>68194</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -2984,13 +2990,13 @@
         <v>80503</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="H13" s="7">
         <v>56</v>
@@ -2999,13 +3005,13 @@
         <v>59642</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="M13" s="7">
         <v>131</v>
@@ -3014,13 +3020,13 @@
         <v>140145</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3035,13 +3041,13 @@
         <v>45845</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="H14" s="7">
         <v>42</v>
@@ -3050,13 +3056,13 @@
         <v>46675</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="M14" s="7">
         <v>81</v>
@@ -3065,13 +3071,13 @@
         <v>92520</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3139,13 +3145,13 @@
         <v>234883</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="H16" s="7">
         <v>128</v>
@@ -3154,13 +3160,13 @@
         <v>138279</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="M16" s="7">
         <v>352</v>
@@ -3169,13 +3175,13 @@
         <v>373162</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3190,13 +3196,13 @@
         <v>622552</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="H17" s="7">
         <v>441</v>
@@ -3205,13 +3211,13 @@
         <v>475773</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="M17" s="7">
         <v>1030</v>
@@ -3220,13 +3226,13 @@
         <v>1098325</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3241,13 +3247,13 @@
         <v>484222</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="H18" s="7">
         <v>327</v>
@@ -3256,13 +3262,13 @@
         <v>360295</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="M18" s="7">
         <v>771</v>
@@ -3271,13 +3277,13 @@
         <v>844516</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>54</v>
+        <v>228</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -3333,7 +3339,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
     </row>
   </sheetData>
@@ -3352,7 +3358,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2CEA422F-D8F0-42E4-B19D-81A21F139DB4}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DB5C0E8F-AC05-47DA-8049-E4D1D5C223C5}">
   <dimension ref="A1:Q20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3369,7 +3375,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3476,13 +3482,13 @@
         <v>21123</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="H4" s="7">
         <v>9</v>
@@ -3491,13 +3497,13 @@
         <v>8639</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="M4" s="7">
         <v>29</v>
@@ -3506,13 +3512,13 @@
         <v>29763</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3527,13 +3533,13 @@
         <v>107328</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="H5" s="7">
         <v>56</v>
@@ -3542,13 +3548,13 @@
         <v>57837</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>101</v>
+        <v>242</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="M5" s="7">
         <v>160</v>
@@ -3557,13 +3563,13 @@
         <v>165165</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3578,13 +3584,13 @@
         <v>93294</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="H6" s="7">
         <v>62</v>
@@ -3593,13 +3599,13 @@
         <v>64770</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="M6" s="7">
         <v>151</v>
@@ -3608,13 +3614,13 @@
         <v>158064</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>46</v>
+        <v>255</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -3682,13 +3688,13 @@
         <v>121816</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>255</v>
+        <v>259</v>
       </c>
       <c r="H8" s="7">
         <v>93</v>
@@ -3697,13 +3703,13 @@
         <v>93998</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>256</v>
+        <v>260</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="M8" s="7">
         <v>202</v>
@@ -3712,13 +3718,13 @@
         <v>215813</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>259</v>
+        <v>263</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3733,13 +3739,13 @@
         <v>389703</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>262</v>
+        <v>266</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="H9" s="7">
         <v>299</v>
@@ -3748,13 +3754,13 @@
         <v>307129</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>265</v>
+        <v>269</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="M9" s="7">
         <v>663</v>
@@ -3763,13 +3769,13 @@
         <v>696831</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>268</v>
+        <v>272</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>270</v>
+        <v>274</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -3784,13 +3790,13 @@
         <v>284217</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>271</v>
+        <v>275</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>272</v>
+        <v>276</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="H10" s="7">
         <v>233</v>
@@ -3799,13 +3805,13 @@
         <v>244245</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>275</v>
+        <v>279</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="M10" s="7">
         <v>498</v>
@@ -3814,13 +3820,13 @@
         <v>528461</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>278</v>
+        <v>282</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>279</v>
+        <v>283</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3888,13 +3894,13 @@
         <v>33792</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>280</v>
+        <v>284</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>281</v>
+        <v>62</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="H12" s="7">
         <v>21</v>
@@ -3903,13 +3909,13 @@
         <v>20647</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>284</v>
+        <v>130</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="M12" s="7">
         <v>50</v>
@@ -3918,13 +3924,13 @@
         <v>54439</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -3939,13 +3945,13 @@
         <v>64248</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="H13" s="7">
         <v>57</v>
@@ -3954,13 +3960,13 @@
         <v>58308</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>293</v>
+        <v>103</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="M13" s="7">
         <v>116</v>
@@ -3969,13 +3975,13 @@
         <v>122556</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>171</v>
+        <v>240</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3990,13 +3996,13 @@
         <v>38113</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="H14" s="7">
         <v>38</v>
@@ -4005,13 +4011,13 @@
         <v>40569</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="M14" s="7">
         <v>71</v>
@@ -4020,13 +4026,13 @@
         <v>78682</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4094,13 +4100,13 @@
         <v>176731</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="H16" s="7">
         <v>123</v>
@@ -4109,13 +4115,13 @@
         <v>123284</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="M16" s="7">
         <v>281</v>
@@ -4124,13 +4130,13 @@
         <v>300016</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4145,13 +4151,13 @@
         <v>561279</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>214</v>
+        <v>317</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="H17" s="7">
         <v>412</v>
@@ -4160,13 +4166,13 @@
         <v>423274</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="M17" s="7">
         <v>939</v>
@@ -4175,13 +4181,13 @@
         <v>984554</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4196,13 +4202,13 @@
         <v>415625</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="H18" s="7">
         <v>333</v>
@@ -4211,13 +4217,13 @@
         <v>349583</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>327</v>
+        <v>220</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="M18" s="7">
         <v>720</v>
@@ -4226,13 +4232,13 @@
         <v>765208</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>85</v>
+        <v>331</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -4288,7 +4294,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P24C-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P24C-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6A1BD8D8-1DB8-419C-8974-00E999C4D8F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{39E9FBC9-06B8-43C5-B75D-B276018FC4A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{3B75C8FF-0F5F-44E5-AB52-8B73CCAD0CB2}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{438021B0-43D3-45B8-8D68-EB2B80C56C1D}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -1448,7 +1448,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6E39341B-8CE0-4232-96D1-79B9D3CFF235}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B48270A-4261-46FB-AA09-8207FD8172A1}">
   <dimension ref="A1:Q20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2238,7 +2238,7 @@
         <v>490</v>
       </c>
       <c r="D17" s="7">
-        <v>511219</v>
+        <v>511218</v>
       </c>
       <c r="E17" s="7" t="s">
         <v>105</v>
@@ -2340,7 +2340,7 @@
         <v>1347</v>
       </c>
       <c r="D19" s="7">
-        <v>1383390</v>
+        <v>1383389</v>
       </c>
       <c r="E19" s="7" t="s">
         <v>40</v>
@@ -2403,7 +2403,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{50C8F002-F8A6-4D58-A714-56D1A03075B9}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{24A8091F-E8D1-4D5B-81FA-0057C6550703}">
   <dimension ref="A1:Q20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3358,7 +3358,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DB5C0E8F-AC05-47DA-8049-E4D1D5C223C5}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{982DF01D-861C-404B-9138-22588CDECB56}">
   <dimension ref="A1:Q20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
